--- a/files/format/harian/Format-Import-Pelanggaran-Konvensional.xlsx
+++ b/files/format/harian/Format-Import-Pelanggaran-Konvensional.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>NO</t>
   </si>
   <si>
-    <t>POLRES</t>
+    <t>POLDA</t>
   </si>
   <si>
     <t>PELANGGARAN BERAT</t>
@@ -31,1399 +31,106 @@
     <t>PELANGGARAN TEGURAN</t>
   </si>
   <si>
-    <t>DITLANTAS METROJAYA</t>
+    <t>Sulawesi Tengah</t>
   </si>
   <si>
-    <t>POLRES  BANGKA TENGAH</t>
+    <t>Sulawesi Barat</t>
   </si>
   <si>
-    <t>POLRES  BENGKAYANG</t>
+    <t>Lampung</t>
   </si>
   <si>
-    <t>POLRES  BOLANG MONGGONDOW SELATAN</t>
+    <t>Jambi</t>
   </si>
   <si>
-    <t>POLRES  BOLANG MONGGONDOW UTARA</t>
+    <t>Daerah Istimewa Yogyakarta</t>
   </si>
   <si>
-    <t>POLRES  BUOL</t>
+    <t>Maluku Utara</t>
   </si>
   <si>
-    <t>POLRES  KOLAKA</t>
+    <t>Bengkulu</t>
   </si>
   <si>
-    <t>POLRES  KOLAKA UTARA</t>
+    <t>Gorontalo</t>
   </si>
   <si>
-    <t>POLRES  KONAWE</t>
+    <t>Sumatera Selatan</t>
   </si>
   <si>
-    <t>POLRES  LANDAK</t>
+    <t>Jawa Barat</t>
   </si>
   <si>
-    <t>POLRES  MINAHASA SELATAN</t>
+    <t>Sulawesi Selatan</t>
   </si>
   <si>
-    <t>POLRES  PELALAWAN</t>
+    <t>Maluku</t>
   </si>
   <si>
-    <t>POLRES  POSO</t>
+    <t>Sumatera Utara</t>
   </si>
   <si>
-    <t>POLRES  ROHUL</t>
+    <t>Riau</t>
   </si>
   <si>
-    <t>POLRES  TANGERANG KAB</t>
+    <t>Kepulauan Riau</t>
   </si>
   <si>
-    <t>POLRES  TANGERANG KAB (SATPAS PEMBANTU)</t>
+    <t>Jawa Timur</t>
   </si>
   <si>
-    <t>POLRES  TOLI-TOLI</t>
+    <t>Kalimantan Timur</t>
   </si>
   <si>
-    <t>POLRES  TOMOHON</t>
+    <t>Kalimantan Utara</t>
   </si>
   <si>
-    <t>POLRES 50 KOTA</t>
+    <t>Aceh</t>
   </si>
   <si>
-    <t>POLRES ABDYA</t>
+    <t>Papua Barat</t>
   </si>
   <si>
-    <t>POLRES ACEH BARAT</t>
+    <t>Jawa Tengah</t>
   </si>
   <si>
-    <t>POLRES ACEH BESAR</t>
+    <t>Kalimantan Barat</t>
   </si>
   <si>
-    <t>POLRES ACEH JAYA</t>
+    <t>Bali</t>
   </si>
   <si>
-    <t>POLRES ACEH SELATAN</t>
+    <t>Nusa Tenggara Timur</t>
   </si>
   <si>
-    <t>POLRES ACEH SINGKIL</t>
+    <t>Sumatera Barat</t>
   </si>
   <si>
-    <t>POLRES ACEH TAMIANG</t>
+    <t>Papua</t>
   </si>
   <si>
-    <t>POLRES ACEH TENGAH</t>
+    <t>Bangka Belitung</t>
   </si>
   <si>
-    <t>POLRES ACEH TENGGARA</t>
+    <t>Nusa Tenggara Barat</t>
   </si>
   <si>
-    <t>POLRES ACEH TIMUR</t>
+    <t>Sulawesi Tenggara</t>
   </si>
   <si>
-    <t>POLRES ACEH UTARA</t>
+    <t>Metro Jaya</t>
   </si>
   <si>
-    <t>POLRES AGAM</t>
+    <t>Banten</t>
   </si>
   <si>
-    <t>POLRES ALOR</t>
+    <t>Kalimantan Selatan</t>
   </si>
   <si>
-    <t>POLRES AMBON</t>
+    <t>Sulawesi Utara</t>
   </si>
   <si>
-    <t>POLRES ASAHAN</t>
-  </si>
-  <si>
-    <t>POLRES ASMAT</t>
-  </si>
-  <si>
-    <t>POLRES BADUNG</t>
-  </si>
-  <si>
-    <t>POLRES BALANGAN</t>
-  </si>
-  <si>
-    <t>POLRES BALIKPAPAN</t>
-  </si>
-  <si>
-    <t>POLRES BANDUNG (SOREANG)</t>
-  </si>
-  <si>
-    <t>POLRES BANGGAI</t>
-  </si>
-  <si>
-    <t>POLRES BANGGAI KEPULAUAN</t>
-  </si>
-  <si>
-    <t>POLRES BANGKA</t>
-  </si>
-  <si>
-    <t>POLRES BANGKA BARAT</t>
-  </si>
-  <si>
-    <t>POLRES BANGKA SELATAN</t>
-  </si>
-  <si>
-    <t>POLRES BANGKALAN</t>
-  </si>
-  <si>
-    <t>POLRES BANGLI</t>
-  </si>
-  <si>
-    <t>POLRES BANJAR</t>
-  </si>
-  <si>
-    <t>POLRES BANJARBARU</t>
-  </si>
-  <si>
-    <t>POLRES BANJARNEGARA</t>
-  </si>
-  <si>
-    <t>POLRES BANTAENG</t>
-  </si>
-  <si>
-    <t>POLRES BANTUL</t>
-  </si>
-  <si>
-    <t>POLRES BANYUASIN</t>
-  </si>
-  <si>
-    <t>POLRES BANYUMAS</t>
-  </si>
-  <si>
-    <t>POLRES BANYUWANGI</t>
-  </si>
-  <si>
-    <t>POLRES BARITO KUALA</t>
-  </si>
-  <si>
-    <t>POLRES BARITO SELATAN</t>
-  </si>
-  <si>
-    <t>POLRES BARITO TIMUR</t>
-  </si>
-  <si>
-    <t>POLRES BARITO UTARA</t>
-  </si>
-  <si>
-    <t>POLRES BARRU</t>
-  </si>
-  <si>
-    <t>POLRES BATANG</t>
-  </si>
-  <si>
-    <t>POLRES BATANG HARI</t>
-  </si>
-  <si>
-    <t>POLRES BATU</t>
-  </si>
-  <si>
-    <t>POLRES BATU BARA</t>
-  </si>
-  <si>
-    <t>POLRES BATURAJA (OKU)</t>
-  </si>
-  <si>
-    <t>POLRES BAU-BAU</t>
-  </si>
-  <si>
-    <t>POLRES BEKASI</t>
-  </si>
-  <si>
-    <t>POLRES BELAWAN</t>
-  </si>
-  <si>
-    <t>POLRES BELITUNG</t>
-  </si>
-  <si>
-    <t>POLRES BELITUNG TIMUR</t>
-  </si>
-  <si>
-    <t>POLRES BELU</t>
-  </si>
-  <si>
-    <t>POLRES BENER MERIAH</t>
-  </si>
-  <si>
-    <t>POLRES BENGKALIS</t>
-  </si>
-  <si>
-    <t>POLRES BENGKULU SELATAN</t>
-  </si>
-  <si>
-    <t>POLRES BENGKULU TENGAH</t>
-  </si>
-  <si>
-    <t>POLRES BENGKULU UTARA</t>
-  </si>
-  <si>
-    <t>POLRES BERAU</t>
-  </si>
-  <si>
-    <t>POLRES BIAK NUMFOR</t>
-  </si>
-  <si>
-    <t>POLRES BIMA</t>
-  </si>
-  <si>
-    <t>POLRES BIMA KOTA</t>
-  </si>
-  <si>
-    <t>POLRES BINJAI</t>
-  </si>
-  <si>
-    <t>POLRES BIREUEN</t>
-  </si>
-  <si>
-    <t>POLRES BITUNG</t>
-  </si>
-  <si>
-    <t>POLRES BLITAR</t>
-  </si>
-  <si>
-    <t>POLRES BLORA</t>
-  </si>
-  <si>
-    <t>POLRES BOALEMO</t>
-  </si>
-  <si>
-    <t>POLRES BOGOR</t>
-  </si>
-  <si>
-    <t>POLRES BOJONEGORO</t>
-  </si>
-  <si>
-    <t>POLRES BOMBANA</t>
-  </si>
-  <si>
-    <t>POLRES BONDOWOSO</t>
-  </si>
-  <si>
-    <t>POLRES BONE</t>
-  </si>
-  <si>
-    <t>POLRES BONE BOLANGO</t>
-  </si>
-  <si>
-    <t>POLRES BONTANG</t>
-  </si>
-  <si>
-    <t>POLRES BOVEN DIGUL</t>
-  </si>
-  <si>
-    <t>POLRES BOYOLALI</t>
-  </si>
-  <si>
-    <t>POLRES BREBES</t>
-  </si>
-  <si>
-    <t>POLRES BUKIT TINGGI</t>
-  </si>
-  <si>
-    <t>POLRES BULELENG</t>
-  </si>
-  <si>
-    <t>POLRES BULUKUMBA</t>
-  </si>
-  <si>
-    <t>POLRES BULUNGAN</t>
-  </si>
-  <si>
-    <t>POLRES BUNGO</t>
-  </si>
-  <si>
-    <t>POLRES BUTON</t>
-  </si>
-  <si>
-    <t>POLRES BUTON UTARA</t>
-  </si>
-  <si>
-    <t>POLRES CIAMIS</t>
-  </si>
-  <si>
-    <t>POLRES CIANJUR</t>
-  </si>
-  <si>
-    <t>POLRES CILACAP</t>
-  </si>
-  <si>
-    <t>POLRES CILEGON</t>
-  </si>
-  <si>
-    <t>POLRES CIMAHI</t>
-  </si>
-  <si>
-    <t>POLRES CIREBON</t>
-  </si>
-  <si>
-    <t>POLRES DAIRI</t>
-  </si>
-  <si>
-    <t>POLRES DELI SERDANG</t>
-  </si>
-  <si>
-    <t>POLRES DEMAK</t>
-  </si>
-  <si>
-    <t>POLRES DHAMASRAYA</t>
-  </si>
-  <si>
-    <t>POLRES DOMPU</t>
-  </si>
-  <si>
-    <t>POLRES DONGGALA</t>
-  </si>
-  <si>
-    <t>POLRES DUMAI</t>
-  </si>
-  <si>
-    <t>POLRES EMPAT LAWANG</t>
-  </si>
-  <si>
-    <t>POLRES ENDE</t>
-  </si>
-  <si>
-    <t>POLRES ENREKANG</t>
-  </si>
-  <si>
-    <t>POLRES FAK-FAK</t>
-  </si>
-  <si>
-    <t>POLRES FLORES TIMUR</t>
-  </si>
-  <si>
-    <t>POLRES GARUT</t>
-  </si>
-  <si>
-    <t>POLRES GAYO LUES</t>
-  </si>
-  <si>
-    <t>POLRES GIANYAR</t>
-  </si>
-  <si>
-    <t>POLRES GORONTALO UTARA</t>
-  </si>
-  <si>
-    <t>POLRES GOWA</t>
-  </si>
-  <si>
-    <t>POLRES GRESIK</t>
-  </si>
-  <si>
-    <t>POLRES GROBOGAN</t>
-  </si>
-  <si>
-    <t>POLRES GUNUNG KIDUL</t>
-  </si>
-  <si>
-    <t>POLRES GUNUNG MAS</t>
-  </si>
-  <si>
-    <t>POLRES HALMAHERA BARAT</t>
-  </si>
-  <si>
-    <t>POLRES HALMAHERA SELATAN</t>
-  </si>
-  <si>
-    <t>POLRES HALMAHERA TENGAH</t>
-  </si>
-  <si>
-    <t>POLRES HALMAHERA TIMUR</t>
-  </si>
-  <si>
-    <t>POLRES HALMAHERA UTARA</t>
-  </si>
-  <si>
-    <t>POLRES HULU SUNGAI SELATAN</t>
-  </si>
-  <si>
-    <t>POLRES HULU SUNGAI TENGAH</t>
-  </si>
-  <si>
-    <t>POLRES HULU SUNGAI UTARA</t>
-  </si>
-  <si>
-    <t>POLRES HUMBANG HASNUDI</t>
-  </si>
-  <si>
-    <t>POLRES INDRAMAYU</t>
-  </si>
-  <si>
-    <t>POLRES INHIL</t>
-  </si>
-  <si>
-    <t>POLRES INHU</t>
-  </si>
-  <si>
-    <t>POLRES JAYAPURA</t>
-  </si>
-  <si>
-    <t>POLRES JAYAWIJAYA</t>
-  </si>
-  <si>
-    <t>POLRES JEMBER</t>
-  </si>
-  <si>
-    <t>POLRES JEMBRANA</t>
-  </si>
-  <si>
-    <t>POLRES JENEPONTO</t>
-  </si>
-  <si>
-    <t>POLRES JEPARA</t>
-  </si>
-  <si>
-    <t>POLRES JOMBANG</t>
-  </si>
-  <si>
-    <t>POLRES KAB. GORONTALO (LIMBOTO)</t>
-  </si>
-  <si>
-    <t>POLRES KAIMANA</t>
-  </si>
-  <si>
-    <t>POLRES KAMPAR</t>
-  </si>
-  <si>
-    <t>POLRES KAPAHIANG</t>
-  </si>
-  <si>
-    <t>POLRES KAPUAS</t>
-  </si>
-  <si>
-    <t>POLRES KAPUAS HULU</t>
-  </si>
-  <si>
-    <t>POLRES KARANGANYAR</t>
-  </si>
-  <si>
-    <t>POLRES KARANGASEM</t>
-  </si>
-  <si>
-    <t>POLRES KARAWANG</t>
-  </si>
-  <si>
-    <t>POLRES KATINGAN</t>
-  </si>
-  <si>
-    <t>POLRES KAUR</t>
-  </si>
-  <si>
-    <t>POLRES KAYONG UTARA</t>
-  </si>
-  <si>
-    <t>POLRES KEBUMEN</t>
-  </si>
-  <si>
-    <t>POLRES KEDIRI/PARE</t>
-  </si>
-  <si>
-    <t>POLRES KENDAL</t>
-  </si>
-  <si>
-    <t>POLRES KEPULAUAN ARU</t>
-  </si>
-  <si>
-    <t>POLRES KEPULAUAN SANANA</t>
-  </si>
-  <si>
-    <t>POLRES KERINCI</t>
-  </si>
-  <si>
-    <t>POLRES KEROM</t>
-  </si>
-  <si>
-    <t>POLRES KETAPANG</t>
-  </si>
-  <si>
-    <t>POLRES KLATEN</t>
-  </si>
-  <si>
-    <t>POLRES KLUNGKUNG</t>
-  </si>
-  <si>
-    <t>POLRES KONAWE UTARA</t>
-  </si>
-  <si>
-    <t>POLRES KONSEL</t>
-  </si>
-  <si>
-    <t>POLRES KOTA BARU</t>
-  </si>
-  <si>
-    <t>POLRES KOTA BUMI LAMPUNG UTARA</t>
-  </si>
-  <si>
-    <t>POLRES KOTAWARINGIN BARAT</t>
-  </si>
-  <si>
-    <t>POLRES KOTAWARINGIN TIMUR</t>
-  </si>
-  <si>
-    <t>POLRES KUANSING</t>
-  </si>
-  <si>
-    <t>POLRES KUDUS</t>
-  </si>
-  <si>
-    <t>POLRES KUKAR</t>
-  </si>
-  <si>
-    <t>POLRES KULON PROGO</t>
-  </si>
-  <si>
-    <t>POLRES KUNINGAN</t>
-  </si>
-  <si>
-    <t>POLRES KUPANG</t>
-  </si>
-  <si>
-    <t>POLRES KUPANG KOTA</t>
-  </si>
-  <si>
-    <t>POLRES KUTAI BARAT</t>
-  </si>
-  <si>
-    <t>POLRES KUTIM</t>
-  </si>
-  <si>
-    <t>POLRES LABUHAN BATU</t>
-  </si>
-  <si>
-    <t>POLRES LAHAT</t>
-  </si>
-  <si>
-    <t>POLRES LAMANDAU</t>
-  </si>
-  <si>
-    <t>POLRES LAMONGAN</t>
-  </si>
-  <si>
-    <t>POLRES LAMPUNG SELATAN</t>
-  </si>
-  <si>
-    <t>POLRES LAMPUNG TENGAH</t>
-  </si>
-  <si>
-    <t>POLRES LAMPUNG TIMUR</t>
-  </si>
-  <si>
-    <t>POLRES LANGKAT</t>
-  </si>
-  <si>
-    <t>POLRES LANGSA</t>
-  </si>
-  <si>
-    <t>POLRES LANI JAYA</t>
-  </si>
-  <si>
-    <t>POLRES LEBAK</t>
-  </si>
-  <si>
-    <t>POLRES LEBONG</t>
-  </si>
-  <si>
-    <t>POLRES LEMBATA</t>
-  </si>
-  <si>
-    <t>POLRES LHOKSEUMAWE</t>
-  </si>
-  <si>
-    <t>POLRES LIWA LAMPUNG BARAT</t>
-  </si>
-  <si>
-    <t>POLRES LOMBOK BARAT</t>
-  </si>
-  <si>
-    <t>POLRES LOMBOK TENGAH</t>
-  </si>
-  <si>
-    <t>POLRES LOMBOK TIMUR</t>
-  </si>
-  <si>
-    <t>POLRES LOMBOK UTARA</t>
-  </si>
-  <si>
-    <t>POLRES LUBUKLINGGAU ( SIM SATPAS )</t>
-  </si>
-  <si>
-    <t>POLRES LUMAJANG</t>
-  </si>
-  <si>
-    <t>POLRES LUWU</t>
-  </si>
-  <si>
-    <t>POLRES LUWU TIMUR</t>
-  </si>
-  <si>
-    <t>POLRES LUWU UTARA</t>
-  </si>
-  <si>
-    <t>POLRES MADINA</t>
-  </si>
-  <si>
-    <t>POLRES MADIUN</t>
-  </si>
-  <si>
-    <t>POLRES MAGELANG</t>
-  </si>
-  <si>
-    <t>POLRES MAGELANG KOTA</t>
-  </si>
-  <si>
-    <t>POLRES MAGETAN</t>
-  </si>
-  <si>
-    <t>POLRES MAJALENGKA</t>
-  </si>
-  <si>
-    <t>POLRES MAJENE</t>
-  </si>
-  <si>
-    <t>POLRES MALANG</t>
-  </si>
-  <si>
-    <t>POLRES MALINAU</t>
-  </si>
-  <si>
-    <t>POLRES MALUKU TENGAH</t>
-  </si>
-  <si>
-    <t>POLRES MALUKU TENGGARA</t>
-  </si>
-  <si>
-    <t>POLRES MAMASA</t>
-  </si>
-  <si>
-    <t>POLRES MAMBERAMO RAYA</t>
-  </si>
-  <si>
-    <t>POLRES MAMUJU</t>
-  </si>
-  <si>
-    <t>POLRES MAMUJU TENGAH</t>
-  </si>
-  <si>
-    <t>POLRES MAMUJU UTARA (SATPAS PASANG KAYU)</t>
-  </si>
-  <si>
-    <t>POLRES MANGGARAI</t>
-  </si>
-  <si>
-    <t>POLRES MANGGARAI BARAT</t>
-  </si>
-  <si>
-    <t>POLRES MANOKWARI</t>
-  </si>
-  <si>
-    <t>POLRES MANOKWARI SELATAN</t>
-  </si>
-  <si>
-    <t>POLRES MAPPI</t>
-  </si>
-  <si>
-    <t>POLRES MAROS</t>
-  </si>
-  <si>
-    <t>POLRES MELAWI</t>
-  </si>
-  <si>
-    <t>POLRES MEMPAWAH</t>
-  </si>
-  <si>
-    <t>POLRES MENTAWAI</t>
-  </si>
-  <si>
-    <t>POLRES MERANGIN</t>
-  </si>
-  <si>
-    <t>POLRES MERANTI</t>
-  </si>
-  <si>
-    <t>POLRES MERAUKE</t>
-  </si>
-  <si>
-    <t>POLRES MESUJI</t>
-  </si>
-  <si>
-    <t>POLRES METRO</t>
-  </si>
-  <si>
-    <t>POLRES METRO JAK PUS</t>
-  </si>
-  <si>
-    <t>POLRES METRO JAKBAR</t>
-  </si>
-  <si>
-    <t>POLRES METRO JAKSEL</t>
-  </si>
-  <si>
-    <t>POLRES METRO JAKTIM</t>
-  </si>
-  <si>
-    <t>POLRES METRO JAKUT</t>
-  </si>
-  <si>
-    <t>POLRES MINAHASA</t>
-  </si>
-  <si>
-    <t>POLRES MINAHASA UTARA</t>
-  </si>
-  <si>
-    <t>POLRES MOJOKERTO</t>
-  </si>
-  <si>
-    <t>POLRES MOROTAI</t>
-  </si>
-  <si>
-    <t>POLRES MOROWALI</t>
-  </si>
-  <si>
-    <t>POLRES MTB</t>
-  </si>
-  <si>
-    <t>POLRES MUARA ENIM</t>
-  </si>
-  <si>
-    <t>POLRES MUARA JAMBI</t>
-  </si>
-  <si>
-    <t>POLRES MUKO MUKO</t>
-  </si>
-  <si>
-    <t>POLRES MUNA</t>
-  </si>
-  <si>
-    <t>POLRES MURUNG RAYA</t>
-  </si>
-  <si>
-    <t>POLRES MUSI RAWAS</t>
-  </si>
-  <si>
-    <t>POLRES MUSI RAWAS UTARA</t>
-  </si>
-  <si>
-    <t>POLRES NABIRE</t>
-  </si>
-  <si>
-    <t>POLRES NAGAN RAYA</t>
-  </si>
-  <si>
-    <t>POLRES NGADA</t>
-  </si>
-  <si>
-    <t>POLRES NGANJUK</t>
-  </si>
-  <si>
-    <t>POLRES NGAWI</t>
-  </si>
-  <si>
-    <t>POLRES NIAS</t>
-  </si>
-  <si>
-    <t>POLRES NIAS SELATAN</t>
-  </si>
-  <si>
-    <t>POLRES NUNUKAN</t>
-  </si>
-  <si>
-    <t>POLRES OI (OGAN ILIR)</t>
-  </si>
-  <si>
-    <t>POLRES OKI</t>
-  </si>
-  <si>
-    <t>POLRES OKU SELATAN</t>
-  </si>
-  <si>
-    <t>POLRES OKU TIMUR</t>
-  </si>
-  <si>
-    <t>POLRES P. SIDEMPUAN</t>
-  </si>
-  <si>
-    <t>POLRES PACITAN</t>
-  </si>
-  <si>
-    <t>POLRES PADANG LAWAS</t>
-  </si>
-  <si>
-    <t>POLRES PAGAR ALAM</t>
-  </si>
-  <si>
-    <t>POLRES PAKPAK BARAT</t>
-  </si>
-  <si>
-    <t>POLRES PALOPO</t>
-  </si>
-  <si>
-    <t>POLRES PAMEKASAN</t>
-  </si>
-  <si>
-    <t>POLRES PANDEGLANG</t>
-  </si>
-  <si>
-    <t>POLRES PANGKAL PINANG</t>
-  </si>
-  <si>
-    <t>POLRES PANGKEP</t>
-  </si>
-  <si>
-    <t>POLRES PANIAI</t>
-  </si>
-  <si>
-    <t>POLRES PARE PARE</t>
-  </si>
-  <si>
-    <t>POLRES PARIAMAN</t>
-  </si>
-  <si>
-    <t>POLRES PARIMO</t>
-  </si>
-  <si>
-    <t>POLRES PASAMAN BARAT</t>
-  </si>
-  <si>
-    <t>POLRES PASAMAN TIMUR</t>
-  </si>
-  <si>
-    <t>POLRES PASER</t>
-  </si>
-  <si>
-    <t>POLRES PASURUAN</t>
-  </si>
-  <si>
-    <t>POLRES PATI</t>
-  </si>
-  <si>
-    <t>POLRES PAYAKUMBUH</t>
-  </si>
-  <si>
-    <t>POLRES PD. PANJANG</t>
-  </si>
-  <si>
-    <t>POLRES PD. PARIAMAN KOTA</t>
-  </si>
-  <si>
-    <t>POLRES PEG BINTANG</t>
-  </si>
-  <si>
-    <t>POLRES PEKALONGAN</t>
-  </si>
-  <si>
-    <t>POLRES PEKALONGAN KOTA</t>
-  </si>
-  <si>
-    <t>POLRES PEMALANG</t>
-  </si>
-  <si>
-    <t>POLRES PEMATANG SIANTAR</t>
-  </si>
-  <si>
-    <t>POLRES PENAJAM PASER  UTARA</t>
-  </si>
-  <si>
-    <t>POLRES PENUKAL ABAB LEMATANG ILIR</t>
-  </si>
-  <si>
-    <t>POLRES PESAWARAN</t>
-  </si>
-  <si>
-    <t>POLRES PESISIR SELATAN</t>
-  </si>
-  <si>
-    <t>POLRES PIDIE</t>
-  </si>
-  <si>
-    <t>POLRES PIDIE JAYA</t>
-  </si>
-  <si>
-    <t>POLRES PINRANG</t>
-  </si>
-  <si>
-    <t>POLRES POHUWATO</t>
-  </si>
-  <si>
-    <t>POLRES POLMAN</t>
-  </si>
-  <si>
-    <t>POLRES PONOROGO</t>
-  </si>
-  <si>
-    <t>POLRES PRABUMULIH</t>
-  </si>
-  <si>
-    <t>POLRES PRINGSEWU</t>
-  </si>
-  <si>
-    <t>POLRES PROBOLINGGO</t>
-  </si>
-  <si>
-    <t>POLRES PULANG PISAU</t>
-  </si>
-  <si>
-    <t>POLRES PULAU BURU</t>
-  </si>
-  <si>
-    <t>POLRES PUNCAK JAYA</t>
-  </si>
-  <si>
-    <t>POLRES PURBALINGGA</t>
-  </si>
-  <si>
-    <t>POLRES PURWAKARTA</t>
-  </si>
-  <si>
-    <t>POLRES PURWOREJO</t>
-  </si>
-  <si>
-    <t>POLRES RAJA AMPAT</t>
-  </si>
-  <si>
-    <t>POLRES REJANG LEBONG</t>
-  </si>
-  <si>
-    <t>POLRES REMBANG</t>
-  </si>
-  <si>
-    <t>POLRES ROHIL</t>
-  </si>
-  <si>
-    <t>POLRES ROTE NDAO</t>
-  </si>
-  <si>
-    <t>POLRES SABANG</t>
-  </si>
-  <si>
-    <t>POLRES SALATIGA</t>
-  </si>
-  <si>
-    <t>POLRES SAMBAS</t>
-  </si>
-  <si>
-    <t>POLRES SAMOSIR</t>
-  </si>
-  <si>
-    <t>POLRES SAMPANG</t>
-  </si>
-  <si>
-    <t>POLRES SANGGAU</t>
-  </si>
-  <si>
-    <t>POLRES SANGIHE</t>
-  </si>
-  <si>
-    <t>POLRES SARMI</t>
-  </si>
-  <si>
-    <t>POLRES SAWAHLUNTO</t>
-  </si>
-  <si>
-    <t>POLRES SEKADAU</t>
-  </si>
-  <si>
-    <t>POLRES SEKAYU ( MUSI BANYUASIN )</t>
-  </si>
-  <si>
-    <t>POLRES SELAYAR</t>
-  </si>
-  <si>
-    <t>POLRES SELUMA</t>
-  </si>
-  <si>
-    <t>POLRES SEMARANG</t>
-  </si>
-  <si>
-    <t>POLRES SERAM BAGIAN BARAT</t>
-  </si>
-  <si>
-    <t>POLRES SERAM BAGIAN TIMUR</t>
-  </si>
-  <si>
-    <t>POLRES SERANG</t>
-  </si>
-  <si>
-    <t>POLRES SERANG KOTA</t>
-  </si>
-  <si>
-    <t>POLRES SERDANG BEDAGAI</t>
-  </si>
-  <si>
-    <t>POLRES SERUYAN</t>
-  </si>
-  <si>
-    <t>POLRES SIAK</t>
-  </si>
-  <si>
-    <t>POLRES SIBOLGA</t>
-  </si>
-  <si>
-    <t>POLRES SIDOARJO</t>
-  </si>
-  <si>
-    <t>POLRES SIDRAP</t>
-  </si>
-  <si>
-    <t>POLRES SIGI</t>
-  </si>
-  <si>
-    <t>POLRES SIJUNJUNG</t>
-  </si>
-  <si>
-    <t>POLRES SIKKA</t>
-  </si>
-  <si>
-    <t>POLRES SIMALUNGUN</t>
-  </si>
-  <si>
-    <t>POLRES SIMELEU</t>
-  </si>
-  <si>
-    <t>POLRES SINGKAWANG</t>
-  </si>
-  <si>
-    <t>POLRES SINJAI</t>
-  </si>
-  <si>
-    <t>POLRES SINTANG</t>
-  </si>
-  <si>
-    <t>POLRES SITUBONDO</t>
-  </si>
-  <si>
-    <t>POLRES SLEMAN</t>
-  </si>
-  <si>
-    <t>POLRES SOLOK</t>
-  </si>
-  <si>
-    <t>POLRES SOLOK KOTA</t>
-  </si>
-  <si>
-    <t>POLRES SOLOK SELATAN</t>
-  </si>
-  <si>
-    <t>POLRES SOPPENG</t>
-  </si>
-  <si>
-    <t>POLRES SOROLANGUN</t>
-  </si>
-  <si>
-    <t>POLRES SORONG AIMAS</t>
-  </si>
-  <si>
-    <t>POLRES SORONG SELATAN</t>
-  </si>
-  <si>
-    <t>POLRES SRAGEN</t>
-  </si>
-  <si>
-    <t>POLRES SUBANG</t>
-  </si>
-  <si>
-    <t>POLRES SUBULUS SALAM</t>
-  </si>
-  <si>
-    <t>POLRES SUKABUMI (PALABUHAN RATU)</t>
-  </si>
-  <si>
-    <t>POLRES SUKAMARA</t>
-  </si>
-  <si>
-    <t>POLRES SUKOHARJO</t>
-  </si>
-  <si>
-    <t>POLRES SUMBA BARAT</t>
-  </si>
-  <si>
-    <t>POLRES SUMBA TIMUR</t>
-  </si>
-  <si>
-    <t>POLRES SUMBAWA BARAT</t>
-  </si>
-  <si>
-    <t>POLRES SUMBAWA BESAR</t>
-  </si>
-  <si>
-    <t>POLRES SUMEDANG</t>
-  </si>
-  <si>
-    <t>POLRES SUMENEP</t>
-  </si>
-  <si>
-    <t>POLRES SUPIORI</t>
-  </si>
-  <si>
-    <t>POLRES SURAKARTA</t>
-  </si>
-  <si>
-    <t>POLRES TABALONG</t>
-  </si>
-  <si>
-    <t>POLRES TABANAN</t>
-  </si>
-  <si>
-    <t>POLRES TAKALAR</t>
-  </si>
-  <si>
-    <t>POLRES TALAUD</t>
-  </si>
-  <si>
-    <t>POLRES TANA TORAJA</t>
-  </si>
-  <si>
-    <t>POLRES TANAH BUMBU</t>
-  </si>
-  <si>
-    <t>POLRES TANAH DATAR</t>
-  </si>
-  <si>
-    <t>POLRES TANAH KARO</t>
-  </si>
-  <si>
-    <t>POLRES TANAH LAUT</t>
-  </si>
-  <si>
-    <t>POLRES TANGERANG SELATAN</t>
-  </si>
-  <si>
-    <t>POLRES TANGGAMUS</t>
-  </si>
-  <si>
-    <t>POLRES TANJABAR</t>
-  </si>
-  <si>
-    <t>POLRES TANJABTIM</t>
-  </si>
-  <si>
-    <t>POLRES TANJUNG BALAI</t>
-  </si>
-  <si>
-    <t>POLRES TAPANULI SELATAN</t>
-  </si>
-  <si>
-    <t>POLRES TAPANULI TENGAH</t>
-  </si>
-  <si>
-    <t>POLRES TAPANULI UTARA</t>
-  </si>
-  <si>
-    <t>POLRES TAPIN</t>
-  </si>
-  <si>
-    <t>POLRES TARAKAN</t>
-  </si>
-  <si>
-    <t>POLRES TASIKMALAYA</t>
-  </si>
-  <si>
-    <t>POLRES TEBING TINGGI</t>
-  </si>
-  <si>
-    <t>POLRES TEBO</t>
-  </si>
-  <si>
-    <t>POLRES TEGAL</t>
-  </si>
-  <si>
-    <t>POLRES TEGAL KOTA</t>
-  </si>
-  <si>
-    <t>POLRES TELUK BINTUNI</t>
-  </si>
-  <si>
-    <t>POLRES TELUK WONDOMA</t>
-  </si>
-  <si>
-    <t>POLRES TEMANGGUNG</t>
-  </si>
-  <si>
-    <t>POLRES TERNATE</t>
-  </si>
-  <si>
-    <t>POLRES TIDORE</t>
-  </si>
-  <si>
-    <t>POLRES TIMIKA</t>
-  </si>
-  <si>
-    <t>POLRES TIMUR TENGAH SELATAN</t>
-  </si>
-  <si>
-    <t>POLRES TIMUR TENGAH UTARA</t>
-  </si>
-  <si>
-    <t>POLRES TOBA SAMOSIR</t>
-  </si>
-  <si>
-    <t>POLRES TOJO UNA-UNA</t>
-  </si>
-  <si>
-    <t>POLRES TOLIKARA</t>
-  </si>
-  <si>
-    <t>POLRES TORAJA UTARA</t>
-  </si>
-  <si>
-    <t>POLRES TRENGGALEK</t>
-  </si>
-  <si>
-    <t>POLRES TUBAN</t>
-  </si>
-  <si>
-    <t>POLRES TULANG BAWANG</t>
-  </si>
-  <si>
-    <t>POLRES TULANG BAWANG BARAT</t>
-  </si>
-  <si>
-    <t>POLRES TULUNGAGUNG</t>
-  </si>
-  <si>
-    <t>POLRES WAJO</t>
-  </si>
-  <si>
-    <t>POLRES WAKATOBI</t>
-  </si>
-  <si>
-    <t>POLRES WAROPEN</t>
-  </si>
-  <si>
-    <t>POLRES WAYKANAN</t>
-  </si>
-  <si>
-    <t>POLRES WONOGIRI</t>
-  </si>
-  <si>
-    <t>POLRES WONOSOBO</t>
-  </si>
-  <si>
-    <t>POLRES YAHUKIMO</t>
-  </si>
-  <si>
-    <t>POLRES YAPEN</t>
-  </si>
-  <si>
-    <t>POLRESTA BANDA ACEH</t>
-  </si>
-  <si>
-    <t>POLRESTA BANDAR LAMPUNG</t>
-  </si>
-  <si>
-    <t>POLRESTA BANJARMASIN</t>
-  </si>
-  <si>
-    <t>POLRESTA BENGKULU</t>
-  </si>
-  <si>
-    <t>POLRESTA BLITAR</t>
-  </si>
-  <si>
-    <t>POLRESTA BOGOR</t>
-  </si>
-  <si>
-    <t>POLRESTA CIREBON</t>
-  </si>
-  <si>
-    <t>POLRESTA DENPASAR</t>
-  </si>
-  <si>
-    <t>POLRESTA DEPOK</t>
-  </si>
-  <si>
-    <t>POLRESTA DEPOK PASAR SEGAR</t>
-  </si>
-  <si>
-    <t>POLRESTA DEPOK SATPAS CINERE</t>
-  </si>
-  <si>
-    <t>POLRESTA GORONTALO</t>
-  </si>
-  <si>
-    <t>POLRESTA JAMBI</t>
-  </si>
-  <si>
-    <t>POLRESTA JAYAPURA</t>
-  </si>
-  <si>
-    <t>POLRESTA KEDIRI</t>
-  </si>
-  <si>
-    <t>POLRESTA KENDARI</t>
-  </si>
-  <si>
-    <t>POLRESTA MADIUN</t>
-  </si>
-  <si>
-    <t>POLRESTA MALANG</t>
-  </si>
-  <si>
-    <t>POLRESTA MANADO</t>
-  </si>
-  <si>
-    <t>POLRESTA MATARAM</t>
-  </si>
-  <si>
-    <t>POLRESTA MOJOKERTO</t>
-  </si>
-  <si>
-    <t>POLRESTA PADANG</t>
-  </si>
-  <si>
-    <t>POLRESTA PALANGAKA RAYA</t>
-  </si>
-  <si>
-    <t>POLRESTA PALEMBANG ( SIM SATPAS )</t>
-  </si>
-  <si>
-    <t>POLRESTA PALU</t>
-  </si>
-  <si>
-    <t>POLRESTA PASURUAN</t>
-  </si>
-  <si>
-    <t>POLRESTA PEKANBARU</t>
-  </si>
-  <si>
-    <t>POLRESTA PONTIANAK</t>
-  </si>
-  <si>
-    <t>POLRESTA PROBOLINGGO</t>
-  </si>
-  <si>
-    <t>POLRESTA SAMARINDA</t>
-  </si>
-  <si>
-    <t>POLRESTA SORONG</t>
-  </si>
-  <si>
-    <t>POLRESTA SUKABUMI</t>
-  </si>
-  <si>
-    <t>POLRESTA TANGERANG</t>
-  </si>
-  <si>
-    <t>POLRESTA TASIKMALAYA</t>
-  </si>
-  <si>
-    <t>POLRESTA YOGYAKARTA</t>
-  </si>
-  <si>
-    <t>POLRESTABES BANDUNG</t>
-  </si>
-  <si>
-    <t>POLRESTABES MAKASSAR</t>
-  </si>
-  <si>
-    <t>POLRESTABES MEDAN</t>
-  </si>
-  <si>
-    <t>POLRESTABES SEMARANG</t>
-  </si>
-  <si>
-    <t>POLRESTABES SURABAYA</t>
-  </si>
-  <si>
-    <t>POLRESTRO BEKASI KOTA</t>
+    <t>Kalimantan Tengah</t>
   </si>
 </sst>
 </file>
@@ -2081,7 +788,7 @@
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
       <c r="P13" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
@@ -2103,7 +810,7 @@
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
       <c r="P14" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
@@ -2125,7 +832,7 @@
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
       <c r="P15" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
@@ -2147,7 +854,7 @@
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
       <c r="P16" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
@@ -2169,7 +876,7 @@
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
       <c r="P17" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
@@ -2191,7 +898,7 @@
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
       <c r="P18" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
@@ -2213,7 +920,7 @@
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
       <c r="P19" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
@@ -2235,7 +942,7 @@
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
       <c r="P20" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
@@ -2257,7 +964,7 @@
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
       <c r="P21" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
@@ -2279,7 +986,7 @@
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
       <c r="P22" s="13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
@@ -2301,7 +1008,7 @@
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
       <c r="P23" s="13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
@@ -2323,7 +1030,7 @@
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
       <c r="P24" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
@@ -2345,7 +1052,7 @@
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
       <c r="P25" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
@@ -2367,7 +1074,7 @@
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
       <c r="P26" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
@@ -2389,7 +1096,7 @@
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
       <c r="P27" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
@@ -2411,7 +1118,7 @@
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
       <c r="P28" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
@@ -2433,7 +1140,7 @@
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
       <c r="P29" s="13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
@@ -2455,7 +1162,7 @@
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
       <c r="P30" s="13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
@@ -2477,7 +1184,7 @@
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
       <c r="P31" s="13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q31" s="11"/>
       <c r="R31" s="11"/>
@@ -2499,7 +1206,7 @@
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
       <c r="P32" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
@@ -2521,7 +1228,7 @@
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
       <c r="P33" s="13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q33" s="11"/>
       <c r="R33" s="11"/>
@@ -2543,7 +1250,7 @@
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
       <c r="P34" s="13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q34" s="11"/>
       <c r="R34" s="11"/>
@@ -2564,9 +1271,7 @@
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
       <c r="O35" s="11"/>
-      <c r="P35" s="13" t="s">
-        <v>38</v>
-      </c>
+      <c r="P35" s="13"/>
       <c r="Q35" s="11"/>
       <c r="R35" s="11"/>
     </row>
@@ -2586,9 +1291,7 @@
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
       <c r="O36" s="11"/>
-      <c r="P36" s="13" t="s">
-        <v>39</v>
-      </c>
+      <c r="P36" s="13"/>
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
     </row>
@@ -2608,9 +1311,7 @@
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
-      <c r="P37" s="13" t="s">
-        <v>40</v>
-      </c>
+      <c r="P37" s="13"/>
       <c r="Q37" s="11"/>
       <c r="R37" s="11"/>
     </row>
@@ -2630,9 +1331,7 @@
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
-      <c r="P38" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="P38" s="13"/>
       <c r="Q38" s="11"/>
       <c r="R38" s="11"/>
     </row>
@@ -2652,9 +1351,7 @@
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
       <c r="O39" s="11"/>
-      <c r="P39" s="13" t="s">
-        <v>42</v>
-      </c>
+      <c r="P39" s="13"/>
       <c r="Q39" s="11"/>
       <c r="R39" s="11"/>
     </row>
@@ -2674,9 +1371,7 @@
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
       <c r="O40" s="11"/>
-      <c r="P40" s="13" t="s">
-        <v>43</v>
-      </c>
+      <c r="P40" s="13"/>
       <c r="Q40" s="11"/>
       <c r="R40" s="11"/>
     </row>
@@ -2696,9 +1391,7 @@
       <c r="M41" s="11"/>
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
-      <c r="P41" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="P41" s="13"/>
       <c r="Q41" s="11"/>
       <c r="R41" s="11"/>
     </row>
@@ -2718,9 +1411,7 @@
       <c r="M42" s="11"/>
       <c r="N42" s="11"/>
       <c r="O42" s="11"/>
-      <c r="P42" s="13" t="s">
-        <v>45</v>
-      </c>
+      <c r="P42" s="13"/>
       <c r="Q42" s="11"/>
       <c r="R42" s="11"/>
     </row>
@@ -2740,9 +1431,7 @@
       <c r="M43" s="11"/>
       <c r="N43" s="11"/>
       <c r="O43" s="11"/>
-      <c r="P43" s="13" t="s">
-        <v>46</v>
-      </c>
+      <c r="P43" s="13"/>
       <c r="Q43" s="11"/>
       <c r="R43" s="11"/>
     </row>
@@ -2762,9 +1451,7 @@
       <c r="M44" s="11"/>
       <c r="N44" s="11"/>
       <c r="O44" s="11"/>
-      <c r="P44" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="P44" s="13"/>
       <c r="Q44" s="11"/>
       <c r="R44" s="11"/>
     </row>
@@ -2784,9 +1471,7 @@
       <c r="M45" s="11"/>
       <c r="N45" s="11"/>
       <c r="O45" s="11"/>
-      <c r="P45" s="13" t="s">
-        <v>48</v>
-      </c>
+      <c r="P45" s="13"/>
       <c r="Q45" s="11"/>
       <c r="R45" s="11"/>
     </row>
@@ -2806,9 +1491,7 @@
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
       <c r="O46" s="11"/>
-      <c r="P46" s="13" t="s">
-        <v>49</v>
-      </c>
+      <c r="P46" s="13"/>
       <c r="Q46" s="11"/>
       <c r="R46" s="11"/>
     </row>
@@ -2828,9 +1511,7 @@
       <c r="M47" s="11"/>
       <c r="N47" s="11"/>
       <c r="O47" s="11"/>
-      <c r="P47" s="13" t="s">
-        <v>50</v>
-      </c>
+      <c r="P47" s="13"/>
       <c r="Q47" s="11"/>
       <c r="R47" s="11"/>
     </row>
@@ -2850,9 +1531,7 @@
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
       <c r="O48" s="11"/>
-      <c r="P48" s="13" t="s">
-        <v>51</v>
-      </c>
+      <c r="P48" s="13"/>
       <c r="Q48" s="11"/>
       <c r="R48" s="11"/>
     </row>
@@ -2872,9 +1551,7 @@
       <c r="M49" s="11"/>
       <c r="N49" s="11"/>
       <c r="O49" s="11"/>
-      <c r="P49" s="13" t="s">
-        <v>52</v>
-      </c>
+      <c r="P49" s="13"/>
       <c r="Q49" s="11"/>
       <c r="R49" s="11"/>
     </row>
@@ -2894,9 +1571,7 @@
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
       <c r="O50" s="11"/>
-      <c r="P50" s="13" t="s">
-        <v>52</v>
-      </c>
+      <c r="P50" s="13"/>
       <c r="Q50" s="11"/>
       <c r="R50" s="11"/>
     </row>
@@ -2916,9 +1591,7 @@
       <c r="M51" s="11"/>
       <c r="N51" s="11"/>
       <c r="O51" s="11"/>
-      <c r="P51" s="13" t="s">
-        <v>53</v>
-      </c>
+      <c r="P51" s="13"/>
       <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
     </row>
@@ -2938,9 +1611,7 @@
       <c r="M52" s="11"/>
       <c r="N52" s="11"/>
       <c r="O52" s="11"/>
-      <c r="P52" s="13" t="s">
-        <v>54</v>
-      </c>
+      <c r="P52" s="13"/>
       <c r="Q52" s="11"/>
       <c r="R52" s="11"/>
     </row>
@@ -2960,9 +1631,7 @@
       <c r="M53" s="11"/>
       <c r="N53" s="11"/>
       <c r="O53" s="11"/>
-      <c r="P53" s="13" t="s">
-        <v>55</v>
-      </c>
+      <c r="P53" s="13"/>
       <c r="Q53" s="11"/>
       <c r="R53" s="11"/>
     </row>
@@ -2982,9 +1651,7 @@
       <c r="M54" s="11"/>
       <c r="N54" s="11"/>
       <c r="O54" s="11"/>
-      <c r="P54" s="13" t="s">
-        <v>56</v>
-      </c>
+      <c r="P54" s="13"/>
       <c r="Q54" s="11"/>
       <c r="R54" s="11"/>
     </row>
@@ -3004,9 +1671,7 @@
       <c r="M55" s="11"/>
       <c r="N55" s="11"/>
       <c r="O55" s="11"/>
-      <c r="P55" s="13" t="s">
-        <v>57</v>
-      </c>
+      <c r="P55" s="13"/>
       <c r="Q55" s="11"/>
       <c r="R55" s="11"/>
     </row>
@@ -3026,9 +1691,7 @@
       <c r="M56" s="11"/>
       <c r="N56" s="11"/>
       <c r="O56" s="11"/>
-      <c r="P56" s="13" t="s">
-        <v>58</v>
-      </c>
+      <c r="P56" s="13"/>
       <c r="Q56" s="11"/>
       <c r="R56" s="11"/>
     </row>
@@ -3048,9 +1711,7 @@
       <c r="M57" s="11"/>
       <c r="N57" s="11"/>
       <c r="O57" s="11"/>
-      <c r="P57" s="13" t="s">
-        <v>59</v>
-      </c>
+      <c r="P57" s="13"/>
       <c r="Q57" s="11"/>
       <c r="R57" s="11"/>
     </row>
@@ -3070,9 +1731,7 @@
       <c r="M58" s="11"/>
       <c r="N58" s="11"/>
       <c r="O58" s="11"/>
-      <c r="P58" s="13" t="s">
-        <v>60</v>
-      </c>
+      <c r="P58" s="13"/>
       <c r="Q58" s="11"/>
       <c r="R58" s="11"/>
     </row>
@@ -3092,9 +1751,7 @@
       <c r="M59" s="11"/>
       <c r="N59" s="11"/>
       <c r="O59" s="11"/>
-      <c r="P59" s="13" t="s">
-        <v>61</v>
-      </c>
+      <c r="P59" s="13"/>
       <c r="Q59" s="11"/>
       <c r="R59" s="11"/>
     </row>
@@ -3114,9 +1771,7 @@
       <c r="M60" s="11"/>
       <c r="N60" s="11"/>
       <c r="O60" s="11"/>
-      <c r="P60" s="13" t="s">
-        <v>62</v>
-      </c>
+      <c r="P60" s="13"/>
       <c r="Q60" s="11"/>
       <c r="R60" s="11"/>
     </row>
@@ -3136,9 +1791,7 @@
       <c r="M61" s="11"/>
       <c r="N61" s="11"/>
       <c r="O61" s="11"/>
-      <c r="P61" s="13" t="s">
-        <v>63</v>
-      </c>
+      <c r="P61" s="13"/>
       <c r="Q61" s="11"/>
       <c r="R61" s="11"/>
     </row>
@@ -3158,9 +1811,7 @@
       <c r="M62" s="11"/>
       <c r="N62" s="11"/>
       <c r="O62" s="11"/>
-      <c r="P62" s="13" t="s">
-        <v>64</v>
-      </c>
+      <c r="P62" s="13"/>
       <c r="Q62" s="11"/>
       <c r="R62" s="11"/>
     </row>
@@ -3180,9 +1831,7 @@
       <c r="M63" s="11"/>
       <c r="N63" s="11"/>
       <c r="O63" s="11"/>
-      <c r="P63" s="13" t="s">
-        <v>65</v>
-      </c>
+      <c r="P63" s="13"/>
       <c r="Q63" s="11"/>
       <c r="R63" s="11"/>
     </row>
@@ -3202,9 +1851,7 @@
       <c r="M64" s="11"/>
       <c r="N64" s="11"/>
       <c r="O64" s="11"/>
-      <c r="P64" s="13" t="s">
-        <v>66</v>
-      </c>
+      <c r="P64" s="13"/>
       <c r="Q64" s="11"/>
       <c r="R64" s="11"/>
     </row>
@@ -3224,9 +1871,7 @@
       <c r="M65" s="11"/>
       <c r="N65" s="11"/>
       <c r="O65" s="11"/>
-      <c r="P65" s="13" t="s">
-        <v>67</v>
-      </c>
+      <c r="P65" s="13"/>
       <c r="Q65" s="11"/>
       <c r="R65" s="11"/>
     </row>
@@ -3246,9 +1891,7 @@
       <c r="M66" s="11"/>
       <c r="N66" s="11"/>
       <c r="O66" s="11"/>
-      <c r="P66" s="13" t="s">
-        <v>68</v>
-      </c>
+      <c r="P66" s="13"/>
       <c r="Q66" s="11"/>
       <c r="R66" s="11"/>
     </row>
@@ -3268,9 +1911,7 @@
       <c r="M67" s="11"/>
       <c r="N67" s="11"/>
       <c r="O67" s="11"/>
-      <c r="P67" s="13" t="s">
-        <v>69</v>
-      </c>
+      <c r="P67" s="13"/>
       <c r="Q67" s="11"/>
       <c r="R67" s="11"/>
     </row>
@@ -3290,9 +1931,7 @@
       <c r="M68" s="11"/>
       <c r="N68" s="11"/>
       <c r="O68" s="11"/>
-      <c r="P68" s="13" t="s">
-        <v>70</v>
-      </c>
+      <c r="P68" s="13"/>
       <c r="Q68" s="11"/>
       <c r="R68" s="11"/>
     </row>
@@ -3312,9 +1951,7 @@
       <c r="M69" s="11"/>
       <c r="N69" s="11"/>
       <c r="O69" s="11"/>
-      <c r="P69" s="13" t="s">
-        <v>71</v>
-      </c>
+      <c r="P69" s="13"/>
       <c r="Q69" s="11"/>
       <c r="R69" s="11"/>
     </row>
@@ -3334,9 +1971,7 @@
       <c r="M70" s="11"/>
       <c r="N70" s="11"/>
       <c r="O70" s="11"/>
-      <c r="P70" s="13" t="s">
-        <v>72</v>
-      </c>
+      <c r="P70" s="13"/>
       <c r="Q70" s="11"/>
       <c r="R70" s="11"/>
     </row>
@@ -3356,9 +1991,7 @@
       <c r="M71" s="11"/>
       <c r="N71" s="11"/>
       <c r="O71" s="11"/>
-      <c r="P71" s="13" t="s">
-        <v>73</v>
-      </c>
+      <c r="P71" s="13"/>
       <c r="Q71" s="11"/>
       <c r="R71" s="11"/>
     </row>
@@ -3378,9 +2011,7 @@
       <c r="M72" s="11"/>
       <c r="N72" s="11"/>
       <c r="O72" s="11"/>
-      <c r="P72" s="13" t="s">
-        <v>74</v>
-      </c>
+      <c r="P72" s="13"/>
       <c r="Q72" s="11"/>
       <c r="R72" s="11"/>
     </row>
@@ -3400,9 +2031,7 @@
       <c r="M73" s="11"/>
       <c r="N73" s="11"/>
       <c r="O73" s="11"/>
-      <c r="P73" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="P73" s="13"/>
       <c r="Q73" s="11"/>
       <c r="R73" s="11"/>
     </row>
@@ -3422,9 +2051,7 @@
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
       <c r="O74" s="11"/>
-      <c r="P74" s="13" t="s">
-        <v>76</v>
-      </c>
+      <c r="P74" s="13"/>
       <c r="Q74" s="11"/>
       <c r="R74" s="11"/>
     </row>
@@ -3444,9 +2071,7 @@
       <c r="M75" s="11"/>
       <c r="N75" s="11"/>
       <c r="O75" s="11"/>
-      <c r="P75" s="13" t="s">
-        <v>77</v>
-      </c>
+      <c r="P75" s="13"/>
       <c r="Q75" s="11"/>
       <c r="R75" s="11"/>
     </row>
@@ -3466,9 +2091,7 @@
       <c r="M76" s="11"/>
       <c r="N76" s="11"/>
       <c r="O76" s="11"/>
-      <c r="P76" s="13" t="s">
-        <v>77</v>
-      </c>
+      <c r="P76" s="13"/>
       <c r="Q76" s="11"/>
       <c r="R76" s="11"/>
     </row>
@@ -3488,9 +2111,7 @@
       <c r="M77" s="11"/>
       <c r="N77" s="11"/>
       <c r="O77" s="11"/>
-      <c r="P77" s="13" t="s">
-        <v>78</v>
-      </c>
+      <c r="P77" s="13"/>
       <c r="Q77" s="11"/>
       <c r="R77" s="11"/>
     </row>
@@ -3510,9 +2131,7 @@
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
       <c r="O78" s="11"/>
-      <c r="P78" s="13" t="s">
-        <v>79</v>
-      </c>
+      <c r="P78" s="13"/>
       <c r="Q78" s="11"/>
       <c r="R78" s="11"/>
     </row>
@@ -3532,9 +2151,7 @@
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
       <c r="O79" s="11"/>
-      <c r="P79" s="13" t="s">
-        <v>80</v>
-      </c>
+      <c r="P79" s="13"/>
       <c r="Q79" s="11"/>
       <c r="R79" s="11"/>
     </row>
@@ -3554,9 +2171,7 @@
       <c r="M80" s="11"/>
       <c r="N80" s="11"/>
       <c r="O80" s="11"/>
-      <c r="P80" s="13" t="s">
-        <v>81</v>
-      </c>
+      <c r="P80" s="13"/>
       <c r="Q80" s="11"/>
       <c r="R80" s="11"/>
     </row>
@@ -3576,9 +2191,7 @@
       <c r="M81" s="11"/>
       <c r="N81" s="11"/>
       <c r="O81" s="11"/>
-      <c r="P81" s="13" t="s">
-        <v>82</v>
-      </c>
+      <c r="P81" s="13"/>
       <c r="Q81" s="11"/>
       <c r="R81" s="11"/>
     </row>
@@ -3598,9 +2211,7 @@
       <c r="M82" s="11"/>
       <c r="N82" s="11"/>
       <c r="O82" s="11"/>
-      <c r="P82" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="P82" s="13"/>
       <c r="Q82" s="11"/>
       <c r="R82" s="11"/>
     </row>
@@ -3620,9 +2231,7 @@
       <c r="M83" s="11"/>
       <c r="N83" s="11"/>
       <c r="O83" s="11"/>
-      <c r="P83" s="13" t="s">
-        <v>84</v>
-      </c>
+      <c r="P83" s="13"/>
       <c r="Q83" s="11"/>
       <c r="R83" s="11"/>
     </row>
@@ -3642,9 +2251,7 @@
       <c r="M84" s="11"/>
       <c r="N84" s="11"/>
       <c r="O84" s="11"/>
-      <c r="P84" s="13" t="s">
-        <v>85</v>
-      </c>
+      <c r="P84" s="13"/>
       <c r="Q84" s="11"/>
       <c r="R84" s="11"/>
     </row>
@@ -3664,9 +2271,7 @@
       <c r="M85" s="11"/>
       <c r="N85" s="11"/>
       <c r="O85" s="11"/>
-      <c r="P85" s="13" t="s">
-        <v>86</v>
-      </c>
+      <c r="P85" s="13"/>
       <c r="Q85" s="11"/>
       <c r="R85" s="11"/>
     </row>
@@ -3686,9 +2291,7 @@
       <c r="M86" s="11"/>
       <c r="N86" s="11"/>
       <c r="O86" s="11"/>
-      <c r="P86" s="13" t="s">
-        <v>87</v>
-      </c>
+      <c r="P86" s="13"/>
       <c r="Q86" s="11"/>
       <c r="R86" s="11"/>
     </row>
@@ -3708,9 +2311,7 @@
       <c r="M87" s="11"/>
       <c r="N87" s="11"/>
       <c r="O87" s="11"/>
-      <c r="P87" s="13" t="s">
-        <v>88</v>
-      </c>
+      <c r="P87" s="13"/>
       <c r="Q87" s="11"/>
       <c r="R87" s="11"/>
     </row>
@@ -3730,9 +2331,7 @@
       <c r="M88" s="11"/>
       <c r="N88" s="11"/>
       <c r="O88" s="11"/>
-      <c r="P88" s="13" t="s">
-        <v>89</v>
-      </c>
+      <c r="P88" s="13"/>
       <c r="Q88" s="11"/>
       <c r="R88" s="11"/>
     </row>
@@ -3752,9 +2351,7 @@
       <c r="M89" s="11"/>
       <c r="N89" s="11"/>
       <c r="O89" s="11"/>
-      <c r="P89" s="13" t="s">
-        <v>90</v>
-      </c>
+      <c r="P89" s="13"/>
       <c r="Q89" s="11"/>
       <c r="R89" s="11"/>
     </row>
@@ -3774,9 +2371,7 @@
       <c r="M90" s="11"/>
       <c r="N90" s="11"/>
       <c r="O90" s="11"/>
-      <c r="P90" s="13" t="s">
-        <v>91</v>
-      </c>
+      <c r="P90" s="13"/>
       <c r="Q90" s="11"/>
       <c r="R90" s="11"/>
     </row>
@@ -3796,9 +2391,7 @@
       <c r="M91" s="11"/>
       <c r="N91" s="11"/>
       <c r="O91" s="11"/>
-      <c r="P91" s="13" t="s">
-        <v>92</v>
-      </c>
+      <c r="P91" s="13"/>
       <c r="Q91" s="11"/>
       <c r="R91" s="11"/>
     </row>
@@ -3818,9 +2411,7 @@
       <c r="M92" s="11"/>
       <c r="N92" s="11"/>
       <c r="O92" s="11"/>
-      <c r="P92" s="13" t="s">
-        <v>93</v>
-      </c>
+      <c r="P92" s="13"/>
       <c r="Q92" s="11"/>
       <c r="R92" s="11"/>
     </row>
@@ -3840,9 +2431,7 @@
       <c r="M93" s="11"/>
       <c r="N93" s="11"/>
       <c r="O93" s="11"/>
-      <c r="P93" s="13" t="s">
-        <v>94</v>
-      </c>
+      <c r="P93" s="13"/>
       <c r="Q93" s="11"/>
       <c r="R93" s="11"/>
     </row>
@@ -3862,9 +2451,7 @@
       <c r="M94" s="11"/>
       <c r="N94" s="11"/>
       <c r="O94" s="11"/>
-      <c r="P94" s="13" t="s">
-        <v>95</v>
-      </c>
+      <c r="P94" s="13"/>
       <c r="Q94" s="11"/>
       <c r="R94" s="11"/>
     </row>
@@ -3884,9 +2471,7 @@
       <c r="M95" s="11"/>
       <c r="N95" s="11"/>
       <c r="O95" s="11"/>
-      <c r="P95" s="13" t="s">
-        <v>96</v>
-      </c>
+      <c r="P95" s="13"/>
       <c r="Q95" s="11"/>
       <c r="R95" s="11"/>
     </row>
@@ -3906,9 +2491,7 @@
       <c r="M96" s="11"/>
       <c r="N96" s="11"/>
       <c r="O96" s="11"/>
-      <c r="P96" s="13" t="s">
-        <v>97</v>
-      </c>
+      <c r="P96" s="13"/>
       <c r="Q96" s="11"/>
       <c r="R96" s="11"/>
     </row>
@@ -3928,9 +2511,7 @@
       <c r="M97" s="11"/>
       <c r="N97" s="11"/>
       <c r="O97" s="11"/>
-      <c r="P97" s="13" t="s">
-        <v>98</v>
-      </c>
+      <c r="P97" s="13"/>
       <c r="Q97" s="11"/>
       <c r="R97" s="11"/>
     </row>
@@ -3950,9 +2531,7 @@
       <c r="M98" s="11"/>
       <c r="N98" s="11"/>
       <c r="O98" s="11"/>
-      <c r="P98" s="13" t="s">
-        <v>99</v>
-      </c>
+      <c r="P98" s="13"/>
       <c r="Q98" s="11"/>
       <c r="R98" s="11"/>
     </row>
@@ -3972,9 +2551,7 @@
       <c r="M99" s="11"/>
       <c r="N99" s="11"/>
       <c r="O99" s="11"/>
-      <c r="P99" s="13" t="s">
-        <v>100</v>
-      </c>
+      <c r="P99" s="13"/>
       <c r="Q99" s="11"/>
       <c r="R99" s="11"/>
     </row>
@@ -3994,9 +2571,7 @@
       <c r="M100" s="11"/>
       <c r="N100" s="11"/>
       <c r="O100" s="11"/>
-      <c r="P100" s="13" t="s">
-        <v>101</v>
-      </c>
+      <c r="P100" s="13"/>
       <c r="Q100" s="11"/>
       <c r="R100" s="11"/>
     </row>
@@ -4016,9 +2591,7 @@
       <c r="M101" s="11"/>
       <c r="N101" s="11"/>
       <c r="O101" s="11"/>
-      <c r="P101" s="13" t="s">
-        <v>102</v>
-      </c>
+      <c r="P101" s="13"/>
       <c r="Q101" s="11"/>
       <c r="R101" s="11"/>
     </row>
@@ -4038,9 +2611,7 @@
       <c r="M102" s="11"/>
       <c r="N102" s="11"/>
       <c r="O102" s="11"/>
-      <c r="P102" s="13" t="s">
-        <v>103</v>
-      </c>
+      <c r="P102" s="13"/>
       <c r="Q102" s="11"/>
       <c r="R102" s="11"/>
     </row>
@@ -4060,9 +2631,7 @@
       <c r="M103" s="11"/>
       <c r="N103" s="11"/>
       <c r="O103" s="11"/>
-      <c r="P103" s="13" t="s">
-        <v>104</v>
-      </c>
+      <c r="P103" s="13"/>
       <c r="Q103" s="11"/>
       <c r="R103" s="11"/>
     </row>
@@ -4082,9 +2651,7 @@
       <c r="M104" s="11"/>
       <c r="N104" s="11"/>
       <c r="O104" s="11"/>
-      <c r="P104" s="13" t="s">
-        <v>105</v>
-      </c>
+      <c r="P104" s="13"/>
       <c r="Q104" s="11"/>
       <c r="R104" s="11"/>
     </row>
@@ -4104,9 +2671,7 @@
       <c r="M105" s="11"/>
       <c r="N105" s="11"/>
       <c r="O105" s="11"/>
-      <c r="P105" s="13" t="s">
-        <v>106</v>
-      </c>
+      <c r="P105" s="13"/>
       <c r="Q105" s="11"/>
       <c r="R105" s="11"/>
     </row>
@@ -4126,9 +2691,7 @@
       <c r="M106" s="11"/>
       <c r="N106" s="11"/>
       <c r="O106" s="11"/>
-      <c r="P106" s="13" t="s">
-        <v>107</v>
-      </c>
+      <c r="P106" s="13"/>
       <c r="Q106" s="11"/>
       <c r="R106" s="11"/>
     </row>
@@ -4148,9 +2711,7 @@
       <c r="M107" s="11"/>
       <c r="N107" s="11"/>
       <c r="O107" s="11"/>
-      <c r="P107" s="13" t="s">
-        <v>108</v>
-      </c>
+      <c r="P107" s="13"/>
       <c r="Q107" s="11"/>
       <c r="R107" s="11"/>
     </row>
@@ -4170,9 +2731,7 @@
       <c r="M108" s="11"/>
       <c r="N108" s="11"/>
       <c r="O108" s="11"/>
-      <c r="P108" s="13" t="s">
-        <v>109</v>
-      </c>
+      <c r="P108" s="13"/>
       <c r="Q108" s="11"/>
       <c r="R108" s="11"/>
     </row>
@@ -4192,9 +2751,7 @@
       <c r="M109" s="11"/>
       <c r="N109" s="11"/>
       <c r="O109" s="11"/>
-      <c r="P109" s="13" t="s">
-        <v>110</v>
-      </c>
+      <c r="P109" s="13"/>
       <c r="Q109" s="11"/>
       <c r="R109" s="11"/>
     </row>
@@ -4214,9 +2771,7 @@
       <c r="M110" s="11"/>
       <c r="N110" s="11"/>
       <c r="O110" s="11"/>
-      <c r="P110" s="13" t="s">
-        <v>111</v>
-      </c>
+      <c r="P110" s="13"/>
       <c r="Q110" s="11"/>
       <c r="R110" s="11"/>
     </row>
@@ -4236,9 +2791,7 @@
       <c r="M111" s="11"/>
       <c r="N111" s="11"/>
       <c r="O111" s="11"/>
-      <c r="P111" s="13" t="s">
-        <v>112</v>
-      </c>
+      <c r="P111" s="13"/>
       <c r="Q111" s="11"/>
       <c r="R111" s="11"/>
     </row>
@@ -4258,9 +2811,7 @@
       <c r="M112" s="11"/>
       <c r="N112" s="11"/>
       <c r="O112" s="11"/>
-      <c r="P112" s="13" t="s">
-        <v>113</v>
-      </c>
+      <c r="P112" s="13"/>
       <c r="Q112" s="11"/>
       <c r="R112" s="11"/>
     </row>
@@ -4280,9 +2831,7 @@
       <c r="M113" s="11"/>
       <c r="N113" s="11"/>
       <c r="O113" s="11"/>
-      <c r="P113" s="13" t="s">
-        <v>114</v>
-      </c>
+      <c r="P113" s="13"/>
       <c r="Q113" s="11"/>
       <c r="R113" s="11"/>
     </row>
@@ -4302,9 +2851,7 @@
       <c r="M114" s="11"/>
       <c r="N114" s="11"/>
       <c r="O114" s="11"/>
-      <c r="P114" s="13" t="s">
-        <v>115</v>
-      </c>
+      <c r="P114" s="13"/>
       <c r="Q114" s="11"/>
       <c r="R114" s="11"/>
     </row>
@@ -4324,9 +2871,7 @@
       <c r="M115" s="11"/>
       <c r="N115" s="11"/>
       <c r="O115" s="11"/>
-      <c r="P115" s="13" t="s">
-        <v>116</v>
-      </c>
+      <c r="P115" s="13"/>
       <c r="Q115" s="11"/>
       <c r="R115" s="11"/>
     </row>
@@ -4346,9 +2891,7 @@
       <c r="M116" s="11"/>
       <c r="N116" s="11"/>
       <c r="O116" s="11"/>
-      <c r="P116" s="13" t="s">
-        <v>117</v>
-      </c>
+      <c r="P116" s="13"/>
       <c r="Q116" s="11"/>
       <c r="R116" s="11"/>
     </row>
@@ -4368,9 +2911,7 @@
       <c r="M117" s="11"/>
       <c r="N117" s="11"/>
       <c r="O117" s="11"/>
-      <c r="P117" s="13" t="s">
-        <v>118</v>
-      </c>
+      <c r="P117" s="13"/>
       <c r="Q117" s="11"/>
       <c r="R117" s="11"/>
     </row>
@@ -4390,9 +2931,7 @@
       <c r="M118" s="11"/>
       <c r="N118" s="11"/>
       <c r="O118" s="11"/>
-      <c r="P118" s="13" t="s">
-        <v>119</v>
-      </c>
+      <c r="P118" s="13"/>
       <c r="Q118" s="11"/>
       <c r="R118" s="11"/>
     </row>
@@ -4412,9 +2951,7 @@
       <c r="M119" s="11"/>
       <c r="N119" s="11"/>
       <c r="O119" s="11"/>
-      <c r="P119" s="13" t="s">
-        <v>120</v>
-      </c>
+      <c r="P119" s="13"/>
       <c r="Q119" s="11"/>
       <c r="R119" s="11"/>
     </row>
@@ -4434,9 +2971,7 @@
       <c r="M120" s="11"/>
       <c r="N120" s="11"/>
       <c r="O120" s="11"/>
-      <c r="P120" s="13" t="s">
-        <v>120</v>
-      </c>
+      <c r="P120" s="13"/>
       <c r="Q120" s="11"/>
       <c r="R120" s="11"/>
     </row>
@@ -4456,9 +2991,7 @@
       <c r="M121" s="11"/>
       <c r="N121" s="11"/>
       <c r="O121" s="11"/>
-      <c r="P121" s="13" t="s">
-        <v>121</v>
-      </c>
+      <c r="P121" s="13"/>
       <c r="Q121" s="11"/>
       <c r="R121" s="11"/>
     </row>
@@ -4478,9 +3011,7 @@
       <c r="M122" s="11"/>
       <c r="N122" s="11"/>
       <c r="O122" s="11"/>
-      <c r="P122" s="13" t="s">
-        <v>122</v>
-      </c>
+      <c r="P122" s="13"/>
       <c r="Q122" s="11"/>
       <c r="R122" s="11"/>
     </row>
@@ -4500,9 +3031,7 @@
       <c r="M123" s="11"/>
       <c r="N123" s="11"/>
       <c r="O123" s="11"/>
-      <c r="P123" s="13" t="s">
-        <v>123</v>
-      </c>
+      <c r="P123" s="13"/>
       <c r="Q123" s="11"/>
       <c r="R123" s="11"/>
     </row>
@@ -4522,9 +3051,7 @@
       <c r="M124" s="11"/>
       <c r="N124" s="11"/>
       <c r="O124" s="11"/>
-      <c r="P124" s="13" t="s">
-        <v>124</v>
-      </c>
+      <c r="P124" s="13"/>
       <c r="Q124" s="11"/>
       <c r="R124" s="11"/>
     </row>
@@ -4544,9 +3071,7 @@
       <c r="M125" s="11"/>
       <c r="N125" s="11"/>
       <c r="O125" s="11"/>
-      <c r="P125" s="13" t="s">
-        <v>125</v>
-      </c>
+      <c r="P125" s="13"/>
       <c r="Q125" s="11"/>
       <c r="R125" s="11"/>
     </row>
@@ -4566,9 +3091,7 @@
       <c r="M126" s="11"/>
       <c r="N126" s="11"/>
       <c r="O126" s="11"/>
-      <c r="P126" s="13" t="s">
-        <v>126</v>
-      </c>
+      <c r="P126" s="13"/>
       <c r="Q126" s="11"/>
       <c r="R126" s="11"/>
     </row>
@@ -4588,9 +3111,7 @@
       <c r="M127" s="11"/>
       <c r="N127" s="11"/>
       <c r="O127" s="11"/>
-      <c r="P127" s="13" t="s">
-        <v>127</v>
-      </c>
+      <c r="P127" s="13"/>
       <c r="Q127" s="11"/>
       <c r="R127" s="11"/>
     </row>
@@ -4610,9 +3131,7 @@
       <c r="M128" s="11"/>
       <c r="N128" s="11"/>
       <c r="O128" s="11"/>
-      <c r="P128" s="13" t="s">
-        <v>128</v>
-      </c>
+      <c r="P128" s="13"/>
       <c r="Q128" s="11"/>
       <c r="R128" s="11"/>
     </row>
@@ -4632,9 +3151,7 @@
       <c r="M129" s="11"/>
       <c r="N129" s="11"/>
       <c r="O129" s="11"/>
-      <c r="P129" s="13" t="s">
-        <v>129</v>
-      </c>
+      <c r="P129" s="13"/>
       <c r="Q129" s="11"/>
       <c r="R129" s="11"/>
     </row>
@@ -4654,9 +3171,7 @@
       <c r="M130" s="11"/>
       <c r="N130" s="11"/>
       <c r="O130" s="11"/>
-      <c r="P130" s="13" t="s">
-        <v>130</v>
-      </c>
+      <c r="P130" s="13"/>
       <c r="Q130" s="11"/>
       <c r="R130" s="11"/>
     </row>
@@ -4676,9 +3191,7 @@
       <c r="M131" s="11"/>
       <c r="N131" s="11"/>
       <c r="O131" s="11"/>
-      <c r="P131" s="13" t="s">
-        <v>131</v>
-      </c>
+      <c r="P131" s="13"/>
       <c r="Q131" s="11"/>
       <c r="R131" s="11"/>
     </row>
@@ -4698,9 +3211,7 @@
       <c r="M132" s="11"/>
       <c r="N132" s="11"/>
       <c r="O132" s="11"/>
-      <c r="P132" s="13" t="s">
-        <v>132</v>
-      </c>
+      <c r="P132" s="13"/>
       <c r="Q132" s="11"/>
       <c r="R132" s="11"/>
     </row>
@@ -4720,9 +3231,7 @@
       <c r="M133" s="11"/>
       <c r="N133" s="11"/>
       <c r="O133" s="11"/>
-      <c r="P133" s="13" t="s">
-        <v>133</v>
-      </c>
+      <c r="P133" s="13"/>
       <c r="Q133" s="11"/>
       <c r="R133" s="11"/>
     </row>
@@ -4742,9 +3251,7 @@
       <c r="M134" s="11"/>
       <c r="N134" s="11"/>
       <c r="O134" s="11"/>
-      <c r="P134" s="13" t="s">
-        <v>134</v>
-      </c>
+      <c r="P134" s="13"/>
       <c r="Q134" s="11"/>
       <c r="R134" s="11"/>
     </row>
@@ -4764,9 +3271,7 @@
       <c r="M135" s="11"/>
       <c r="N135" s="11"/>
       <c r="O135" s="11"/>
-      <c r="P135" s="13" t="s">
-        <v>135</v>
-      </c>
+      <c r="P135" s="13"/>
       <c r="Q135" s="11"/>
       <c r="R135" s="11"/>
     </row>
@@ -4786,9 +3291,7 @@
       <c r="M136" s="11"/>
       <c r="N136" s="11"/>
       <c r="O136" s="11"/>
-      <c r="P136" s="13" t="s">
-        <v>136</v>
-      </c>
+      <c r="P136" s="13"/>
       <c r="Q136" s="11"/>
       <c r="R136" s="11"/>
     </row>
@@ -4808,9 +3311,7 @@
       <c r="M137" s="11"/>
       <c r="N137" s="11"/>
       <c r="O137" s="11"/>
-      <c r="P137" s="13" t="s">
-        <v>137</v>
-      </c>
+      <c r="P137" s="13"/>
       <c r="Q137" s="11"/>
       <c r="R137" s="11"/>
     </row>
@@ -4830,9 +3331,7 @@
       <c r="M138" s="11"/>
       <c r="N138" s="11"/>
       <c r="O138" s="11"/>
-      <c r="P138" s="13" t="s">
-        <v>138</v>
-      </c>
+      <c r="P138" s="13"/>
       <c r="Q138" s="11"/>
       <c r="R138" s="11"/>
     </row>
@@ -4852,9 +3351,7 @@
       <c r="M139" s="11"/>
       <c r="N139" s="11"/>
       <c r="O139" s="11"/>
-      <c r="P139" s="13" t="s">
-        <v>139</v>
-      </c>
+      <c r="P139" s="13"/>
       <c r="Q139" s="11"/>
       <c r="R139" s="11"/>
     </row>
@@ -4874,9 +3371,7 @@
       <c r="M140" s="11"/>
       <c r="N140" s="11"/>
       <c r="O140" s="11"/>
-      <c r="P140" s="13" t="s">
-        <v>140</v>
-      </c>
+      <c r="P140" s="13"/>
       <c r="Q140" s="11"/>
       <c r="R140" s="11"/>
     </row>
@@ -4896,9 +3391,7 @@
       <c r="M141" s="11"/>
       <c r="N141" s="11"/>
       <c r="O141" s="11"/>
-      <c r="P141" s="13" t="s">
-        <v>141</v>
-      </c>
+      <c r="P141" s="13"/>
       <c r="Q141" s="11"/>
       <c r="R141" s="11"/>
     </row>
@@ -4918,9 +3411,7 @@
       <c r="M142" s="11"/>
       <c r="N142" s="11"/>
       <c r="O142" s="11"/>
-      <c r="P142" s="13" t="s">
-        <v>142</v>
-      </c>
+      <c r="P142" s="13"/>
       <c r="Q142" s="11"/>
       <c r="R142" s="11"/>
     </row>
@@ -4940,9 +3431,7 @@
       <c r="M143" s="11"/>
       <c r="N143" s="11"/>
       <c r="O143" s="11"/>
-      <c r="P143" s="13" t="s">
-        <v>143</v>
-      </c>
+      <c r="P143" s="13"/>
       <c r="Q143" s="11"/>
       <c r="R143" s="11"/>
     </row>
@@ -4962,9 +3451,7 @@
       <c r="M144" s="11"/>
       <c r="N144" s="11"/>
       <c r="O144" s="11"/>
-      <c r="P144" s="13" t="s">
-        <v>144</v>
-      </c>
+      <c r="P144" s="13"/>
       <c r="Q144" s="11"/>
       <c r="R144" s="11"/>
     </row>
@@ -4984,9 +3471,7 @@
       <c r="M145" s="11"/>
       <c r="N145" s="11"/>
       <c r="O145" s="11"/>
-      <c r="P145" s="13" t="s">
-        <v>145</v>
-      </c>
+      <c r="P145" s="13"/>
       <c r="Q145" s="11"/>
       <c r="R145" s="11"/>
     </row>
@@ -5006,9 +3491,7 @@
       <c r="M146" s="11"/>
       <c r="N146" s="11"/>
       <c r="O146" s="11"/>
-      <c r="P146" s="13" t="s">
-        <v>145</v>
-      </c>
+      <c r="P146" s="13"/>
       <c r="Q146" s="11"/>
       <c r="R146" s="11"/>
     </row>
@@ -5028,9 +3511,7 @@
       <c r="M147" s="11"/>
       <c r="N147" s="11"/>
       <c r="O147" s="11"/>
-      <c r="P147" s="13" t="s">
-        <v>146</v>
-      </c>
+      <c r="P147" s="13"/>
       <c r="Q147" s="11"/>
       <c r="R147" s="11"/>
     </row>
@@ -5050,9 +3531,7 @@
       <c r="M148" s="11"/>
       <c r="N148" s="11"/>
       <c r="O148" s="11"/>
-      <c r="P148" s="13" t="s">
-        <v>146</v>
-      </c>
+      <c r="P148" s="13"/>
       <c r="Q148" s="11"/>
       <c r="R148" s="11"/>
     </row>
@@ -5072,9 +3551,7 @@
       <c r="M149" s="11"/>
       <c r="N149" s="11"/>
       <c r="O149" s="11"/>
-      <c r="P149" s="13" t="s">
-        <v>147</v>
-      </c>
+      <c r="P149" s="13"/>
       <c r="Q149" s="11"/>
       <c r="R149" s="11"/>
     </row>
@@ -5094,9 +3571,7 @@
       <c r="M150" s="11"/>
       <c r="N150" s="11"/>
       <c r="O150" s="11"/>
-      <c r="P150" s="13" t="s">
-        <v>148</v>
-      </c>
+      <c r="P150" s="13"/>
       <c r="Q150" s="11"/>
       <c r="R150" s="11"/>
     </row>
@@ -5116,9 +3591,7 @@
       <c r="M151" s="11"/>
       <c r="N151" s="11"/>
       <c r="O151" s="11"/>
-      <c r="P151" s="13" t="s">
-        <v>149</v>
-      </c>
+      <c r="P151" s="13"/>
       <c r="Q151" s="11"/>
       <c r="R151" s="11"/>
     </row>
@@ -5138,9 +3611,7 @@
       <c r="M152" s="11"/>
       <c r="N152" s="11"/>
       <c r="O152" s="11"/>
-      <c r="P152" s="13" t="s">
-        <v>150</v>
-      </c>
+      <c r="P152" s="13"/>
       <c r="Q152" s="11"/>
       <c r="R152" s="11"/>
     </row>
@@ -5160,9 +3631,7 @@
       <c r="M153" s="11"/>
       <c r="N153" s="11"/>
       <c r="O153" s="11"/>
-      <c r="P153" s="13" t="s">
-        <v>151</v>
-      </c>
+      <c r="P153" s="13"/>
       <c r="Q153" s="11"/>
       <c r="R153" s="11"/>
     </row>
@@ -5182,9 +3651,7 @@
       <c r="M154" s="11"/>
       <c r="N154" s="11"/>
       <c r="O154" s="11"/>
-      <c r="P154" s="13" t="s">
-        <v>152</v>
-      </c>
+      <c r="P154" s="13"/>
       <c r="Q154" s="11"/>
       <c r="R154" s="11"/>
     </row>
@@ -5204,9 +3671,7 @@
       <c r="M155" s="11"/>
       <c r="N155" s="11"/>
       <c r="O155" s="11"/>
-      <c r="P155" s="13" t="s">
-        <v>153</v>
-      </c>
+      <c r="P155" s="13"/>
       <c r="Q155" s="11"/>
       <c r="R155" s="11"/>
     </row>
@@ -5226,9 +3691,7 @@
       <c r="M156" s="11"/>
       <c r="N156" s="11"/>
       <c r="O156" s="11"/>
-      <c r="P156" s="13" t="s">
-        <v>154</v>
-      </c>
+      <c r="P156" s="13"/>
       <c r="Q156" s="11"/>
       <c r="R156" s="11"/>
     </row>
@@ -5248,9 +3711,7 @@
       <c r="M157" s="11"/>
       <c r="N157" s="11"/>
       <c r="O157" s="11"/>
-      <c r="P157" s="13" t="s">
-        <v>155</v>
-      </c>
+      <c r="P157" s="13"/>
       <c r="Q157" s="11"/>
       <c r="R157" s="11"/>
     </row>
@@ -5270,9 +3731,7 @@
       <c r="M158" s="11"/>
       <c r="N158" s="11"/>
       <c r="O158" s="11"/>
-      <c r="P158" s="13" t="s">
-        <v>156</v>
-      </c>
+      <c r="P158" s="13"/>
       <c r="Q158" s="11"/>
       <c r="R158" s="11"/>
     </row>
@@ -5292,9 +3751,7 @@
       <c r="M159" s="11"/>
       <c r="N159" s="11"/>
       <c r="O159" s="11"/>
-      <c r="P159" s="13" t="s">
-        <v>156</v>
-      </c>
+      <c r="P159" s="13"/>
       <c r="Q159" s="11"/>
       <c r="R159" s="11"/>
     </row>
@@ -5314,9 +3771,7 @@
       <c r="M160" s="11"/>
       <c r="N160" s="11"/>
       <c r="O160" s="11"/>
-      <c r="P160" s="13" t="s">
-        <v>157</v>
-      </c>
+      <c r="P160" s="13"/>
       <c r="Q160" s="11"/>
       <c r="R160" s="11"/>
     </row>
@@ -5336,9 +3791,7 @@
       <c r="M161" s="11"/>
       <c r="N161" s="11"/>
       <c r="O161" s="11"/>
-      <c r="P161" s="13" t="s">
-        <v>158</v>
-      </c>
+      <c r="P161" s="13"/>
       <c r="Q161" s="11"/>
       <c r="R161" s="11"/>
     </row>
@@ -5358,9 +3811,7 @@
       <c r="M162" s="11"/>
       <c r="N162" s="11"/>
       <c r="O162" s="11"/>
-      <c r="P162" s="13" t="s">
-        <v>159</v>
-      </c>
+      <c r="P162" s="13"/>
       <c r="Q162" s="11"/>
       <c r="R162" s="11"/>
     </row>
@@ -5380,9 +3831,7 @@
       <c r="M163" s="11"/>
       <c r="N163" s="11"/>
       <c r="O163" s="11"/>
-      <c r="P163" s="13" t="s">
-        <v>160</v>
-      </c>
+      <c r="P163" s="13"/>
       <c r="Q163" s="11"/>
       <c r="R163" s="11"/>
     </row>
@@ -5402,9 +3851,7 @@
       <c r="M164" s="11"/>
       <c r="N164" s="11"/>
       <c r="O164" s="11"/>
-      <c r="P164" s="13" t="s">
-        <v>161</v>
-      </c>
+      <c r="P164" s="13"/>
       <c r="Q164" s="11"/>
       <c r="R164" s="11"/>
     </row>
@@ -5424,9 +3871,7 @@
       <c r="M165" s="11"/>
       <c r="N165" s="11"/>
       <c r="O165" s="11"/>
-      <c r="P165" s="13" t="s">
-        <v>162</v>
-      </c>
+      <c r="P165" s="13"/>
       <c r="Q165" s="11"/>
       <c r="R165" s="11"/>
     </row>
@@ -5446,9 +3891,7 @@
       <c r="M166" s="11"/>
       <c r="N166" s="11"/>
       <c r="O166" s="11"/>
-      <c r="P166" s="13" t="s">
-        <v>163</v>
-      </c>
+      <c r="P166" s="13"/>
       <c r="Q166" s="11"/>
       <c r="R166" s="11"/>
     </row>
@@ -5468,9 +3911,7 @@
       <c r="M167" s="11"/>
       <c r="N167" s="11"/>
       <c r="O167" s="11"/>
-      <c r="P167" s="13" t="s">
-        <v>164</v>
-      </c>
+      <c r="P167" s="13"/>
       <c r="Q167" s="11"/>
       <c r="R167" s="11"/>
     </row>
@@ -5490,9 +3931,7 @@
       <c r="M168" s="11"/>
       <c r="N168" s="11"/>
       <c r="O168" s="11"/>
-      <c r="P168" s="13" t="s">
-        <v>165</v>
-      </c>
+      <c r="P168" s="13"/>
       <c r="Q168" s="11"/>
       <c r="R168" s="11"/>
     </row>
@@ -5512,9 +3951,7 @@
       <c r="M169" s="11"/>
       <c r="N169" s="11"/>
       <c r="O169" s="11"/>
-      <c r="P169" s="13" t="s">
-        <v>166</v>
-      </c>
+      <c r="P169" s="13"/>
       <c r="Q169" s="11"/>
       <c r="R169" s="11"/>
     </row>
@@ -5534,9 +3971,7 @@
       <c r="M170" s="11"/>
       <c r="N170" s="11"/>
       <c r="O170" s="11"/>
-      <c r="P170" s="13" t="s">
-        <v>167</v>
-      </c>
+      <c r="P170" s="13"/>
       <c r="Q170" s="11"/>
       <c r="R170" s="11"/>
     </row>
@@ -5556,9 +3991,7 @@
       <c r="M171" s="11"/>
       <c r="N171" s="11"/>
       <c r="O171" s="11"/>
-      <c r="P171" s="13" t="s">
-        <v>168</v>
-      </c>
+      <c r="P171" s="13"/>
       <c r="Q171" s="11"/>
       <c r="R171" s="11"/>
     </row>
@@ -5578,9 +4011,7 @@
       <c r="M172" s="11"/>
       <c r="N172" s="11"/>
       <c r="O172" s="11"/>
-      <c r="P172" s="13" t="s">
-        <v>169</v>
-      </c>
+      <c r="P172" s="13"/>
       <c r="Q172" s="11"/>
       <c r="R172" s="11"/>
     </row>
@@ -5600,9 +4031,7 @@
       <c r="M173" s="11"/>
       <c r="N173" s="11"/>
       <c r="O173" s="11"/>
-      <c r="P173" s="13" t="s">
-        <v>170</v>
-      </c>
+      <c r="P173" s="13"/>
       <c r="Q173" s="11"/>
       <c r="R173" s="11"/>
     </row>
@@ -5622,9 +4051,7 @@
       <c r="M174" s="11"/>
       <c r="N174" s="11"/>
       <c r="O174" s="11"/>
-      <c r="P174" s="13" t="s">
-        <v>171</v>
-      </c>
+      <c r="P174" s="13"/>
       <c r="Q174" s="11"/>
       <c r="R174" s="11"/>
     </row>
@@ -5644,9 +4071,7 @@
       <c r="M175" s="11"/>
       <c r="N175" s="11"/>
       <c r="O175" s="11"/>
-      <c r="P175" s="13" t="s">
-        <v>172</v>
-      </c>
+      <c r="P175" s="13"/>
       <c r="Q175" s="11"/>
       <c r="R175" s="11"/>
     </row>
@@ -5666,9 +4091,7 @@
       <c r="M176" s="11"/>
       <c r="N176" s="11"/>
       <c r="O176" s="11"/>
-      <c r="P176" s="13" t="s">
-        <v>173</v>
-      </c>
+      <c r="P176" s="13"/>
       <c r="Q176" s="11"/>
       <c r="R176" s="11"/>
     </row>
@@ -5688,9 +4111,7 @@
       <c r="M177" s="11"/>
       <c r="N177" s="11"/>
       <c r="O177" s="11"/>
-      <c r="P177" s="13" t="s">
-        <v>174</v>
-      </c>
+      <c r="P177" s="13"/>
       <c r="Q177" s="11"/>
       <c r="R177" s="11"/>
     </row>
@@ -5710,9 +4131,7 @@
       <c r="M178" s="11"/>
       <c r="N178" s="11"/>
       <c r="O178" s="11"/>
-      <c r="P178" s="13" t="s">
-        <v>175</v>
-      </c>
+      <c r="P178" s="13"/>
       <c r="Q178" s="11"/>
       <c r="R178" s="11"/>
     </row>
@@ -5732,9 +4151,7 @@
       <c r="M179" s="11"/>
       <c r="N179" s="11"/>
       <c r="O179" s="11"/>
-      <c r="P179" s="13" t="s">
-        <v>176</v>
-      </c>
+      <c r="P179" s="13"/>
       <c r="Q179" s="11"/>
       <c r="R179" s="11"/>
     </row>
@@ -5754,9 +4171,7 @@
       <c r="M180" s="11"/>
       <c r="N180" s="11"/>
       <c r="O180" s="11"/>
-      <c r="P180" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="P180" s="13"/>
       <c r="Q180" s="11"/>
       <c r="R180" s="11"/>
     </row>
@@ -5776,9 +4191,7 @@
       <c r="M181" s="11"/>
       <c r="N181" s="11"/>
       <c r="O181" s="11"/>
-      <c r="P181" s="13" t="s">
-        <v>178</v>
-      </c>
+      <c r="P181" s="13"/>
       <c r="Q181" s="11"/>
       <c r="R181" s="11"/>
     </row>
@@ -5798,9 +4211,7 @@
       <c r="M182" s="11"/>
       <c r="N182" s="11"/>
       <c r="O182" s="11"/>
-      <c r="P182" s="13" t="s">
-        <v>179</v>
-      </c>
+      <c r="P182" s="13"/>
       <c r="Q182" s="11"/>
       <c r="R182" s="11"/>
     </row>
@@ -5820,9 +4231,7 @@
       <c r="M183" s="11"/>
       <c r="N183" s="11"/>
       <c r="O183" s="11"/>
-      <c r="P183" s="13" t="s">
-        <v>180</v>
-      </c>
+      <c r="P183" s="13"/>
       <c r="Q183" s="11"/>
       <c r="R183" s="11"/>
     </row>
@@ -5842,9 +4251,7 @@
       <c r="M184" s="11"/>
       <c r="N184" s="11"/>
       <c r="O184" s="11"/>
-      <c r="P184" s="13" t="s">
-        <v>181</v>
-      </c>
+      <c r="P184" s="13"/>
       <c r="Q184" s="11"/>
       <c r="R184" s="11"/>
     </row>
@@ -5864,9 +4271,7 @@
       <c r="M185" s="11"/>
       <c r="N185" s="11"/>
       <c r="O185" s="11"/>
-      <c r="P185" s="13" t="s">
-        <v>182</v>
-      </c>
+      <c r="P185" s="13"/>
       <c r="Q185" s="11"/>
       <c r="R185" s="11"/>
     </row>
@@ -5886,9 +4291,7 @@
       <c r="M186" s="11"/>
       <c r="N186" s="11"/>
       <c r="O186" s="11"/>
-      <c r="P186" s="13" t="s">
-        <v>182</v>
-      </c>
+      <c r="P186" s="13"/>
       <c r="Q186" s="11"/>
       <c r="R186" s="11"/>
     </row>
@@ -5908,9 +4311,7 @@
       <c r="M187" s="11"/>
       <c r="N187" s="11"/>
       <c r="O187" s="11"/>
-      <c r="P187" s="13" t="s">
-        <v>183</v>
-      </c>
+      <c r="P187" s="13"/>
       <c r="Q187" s="11"/>
       <c r="R187" s="11"/>
     </row>
@@ -5930,9 +4331,7 @@
       <c r="M188" s="11"/>
       <c r="N188" s="11"/>
       <c r="O188" s="11"/>
-      <c r="P188" s="13" t="s">
-        <v>184</v>
-      </c>
+      <c r="P188" s="13"/>
       <c r="Q188" s="11"/>
       <c r="R188" s="11"/>
     </row>
@@ -5952,9 +4351,7 @@
       <c r="M189" s="11"/>
       <c r="N189" s="11"/>
       <c r="O189" s="11"/>
-      <c r="P189" s="13" t="s">
-        <v>185</v>
-      </c>
+      <c r="P189" s="13"/>
       <c r="Q189" s="11"/>
       <c r="R189" s="11"/>
     </row>
@@ -5974,9 +4371,7 @@
       <c r="M190" s="11"/>
       <c r="N190" s="11"/>
       <c r="O190" s="11"/>
-      <c r="P190" s="13" t="s">
-        <v>186</v>
-      </c>
+      <c r="P190" s="13"/>
       <c r="Q190" s="11"/>
       <c r="R190" s="11"/>
     </row>
@@ -5996,9 +4391,7 @@
       <c r="M191" s="11"/>
       <c r="N191" s="11"/>
       <c r="O191" s="11"/>
-      <c r="P191" s="13" t="s">
-        <v>187</v>
-      </c>
+      <c r="P191" s="13"/>
       <c r="Q191" s="11"/>
       <c r="R191" s="11"/>
     </row>
@@ -6018,9 +4411,7 @@
       <c r="M192" s="11"/>
       <c r="N192" s="11"/>
       <c r="O192" s="11"/>
-      <c r="P192" s="13" t="s">
-        <v>188</v>
-      </c>
+      <c r="P192" s="13"/>
       <c r="Q192" s="11"/>
       <c r="R192" s="11"/>
     </row>
@@ -6040,9 +4431,7 @@
       <c r="M193" s="11"/>
       <c r="N193" s="11"/>
       <c r="O193" s="11"/>
-      <c r="P193" s="13" t="s">
-        <v>189</v>
-      </c>
+      <c r="P193" s="13"/>
       <c r="Q193" s="11"/>
       <c r="R193" s="11"/>
     </row>
@@ -6062,9 +4451,7 @@
       <c r="M194" s="11"/>
       <c r="N194" s="11"/>
       <c r="O194" s="11"/>
-      <c r="P194" s="13" t="s">
-        <v>190</v>
-      </c>
+      <c r="P194" s="13"/>
       <c r="Q194" s="11"/>
       <c r="R194" s="11"/>
     </row>
@@ -6084,9 +4471,7 @@
       <c r="M195" s="11"/>
       <c r="N195" s="11"/>
       <c r="O195" s="11"/>
-      <c r="P195" s="13" t="s">
-        <v>191</v>
-      </c>
+      <c r="P195" s="13"/>
       <c r="Q195" s="11"/>
       <c r="R195" s="11"/>
     </row>
@@ -6106,9 +4491,7 @@
       <c r="M196" s="11"/>
       <c r="N196" s="11"/>
       <c r="O196" s="11"/>
-      <c r="P196" s="13" t="s">
-        <v>192</v>
-      </c>
+      <c r="P196" s="13"/>
       <c r="Q196" s="11"/>
       <c r="R196" s="11"/>
     </row>
@@ -6128,9 +4511,7 @@
       <c r="M197" s="11"/>
       <c r="N197" s="11"/>
       <c r="O197" s="11"/>
-      <c r="P197" s="13" t="s">
-        <v>193</v>
-      </c>
+      <c r="P197" s="13"/>
       <c r="Q197" s="11"/>
       <c r="R197" s="11"/>
     </row>
@@ -6150,9 +4531,7 @@
       <c r="M198" s="11"/>
       <c r="N198" s="11"/>
       <c r="O198" s="11"/>
-      <c r="P198" s="13" t="s">
-        <v>194</v>
-      </c>
+      <c r="P198" s="13"/>
       <c r="Q198" s="11"/>
       <c r="R198" s="11"/>
     </row>
@@ -6172,9 +4551,7 @@
       <c r="M199" s="11"/>
       <c r="N199" s="11"/>
       <c r="O199" s="11"/>
-      <c r="P199" s="13" t="s">
-        <v>195</v>
-      </c>
+      <c r="P199" s="13"/>
       <c r="Q199" s="11"/>
       <c r="R199" s="11"/>
     </row>
@@ -6194,9 +4571,7 @@
       <c r="M200" s="11"/>
       <c r="N200" s="11"/>
       <c r="O200" s="11"/>
-      <c r="P200" s="13" t="s">
-        <v>196</v>
-      </c>
+      <c r="P200" s="13"/>
       <c r="Q200" s="11"/>
       <c r="R200" s="11"/>
     </row>
@@ -6216,9 +4591,7 @@
       <c r="M201" s="11"/>
       <c r="N201" s="11"/>
       <c r="O201" s="11"/>
-      <c r="P201" s="13" t="s">
-        <v>197</v>
-      </c>
+      <c r="P201" s="13"/>
       <c r="Q201" s="11"/>
       <c r="R201" s="11"/>
     </row>
@@ -6238,9 +4611,7 @@
       <c r="M202" s="11"/>
       <c r="N202" s="11"/>
       <c r="O202" s="11"/>
-      <c r="P202" s="13" t="s">
-        <v>198</v>
-      </c>
+      <c r="P202" s="13"/>
       <c r="Q202" s="11"/>
       <c r="R202" s="11"/>
     </row>
@@ -6260,9 +4631,7 @@
       <c r="M203" s="11"/>
       <c r="N203" s="11"/>
       <c r="O203" s="11"/>
-      <c r="P203" s="13" t="s">
-        <v>199</v>
-      </c>
+      <c r="P203" s="13"/>
       <c r="Q203" s="11"/>
       <c r="R203" s="11"/>
     </row>
@@ -6282,9 +4651,7 @@
       <c r="M204" s="11"/>
       <c r="N204" s="11"/>
       <c r="O204" s="11"/>
-      <c r="P204" s="13" t="s">
-        <v>200</v>
-      </c>
+      <c r="P204" s="13"/>
       <c r="Q204" s="11"/>
       <c r="R204" s="11"/>
     </row>
@@ -6304,9 +4671,7 @@
       <c r="M205" s="11"/>
       <c r="N205" s="11"/>
       <c r="O205" s="11"/>
-      <c r="P205" s="13" t="s">
-        <v>201</v>
-      </c>
+      <c r="P205" s="13"/>
       <c r="Q205" s="11"/>
       <c r="R205" s="11"/>
     </row>
@@ -6326,9 +4691,7 @@
       <c r="M206" s="11"/>
       <c r="N206" s="11"/>
       <c r="O206" s="11"/>
-      <c r="P206" s="13" t="s">
-        <v>202</v>
-      </c>
+      <c r="P206" s="13"/>
       <c r="Q206" s="11"/>
       <c r="R206" s="11"/>
     </row>
@@ -6348,9 +4711,7 @@
       <c r="M207" s="11"/>
       <c r="N207" s="11"/>
       <c r="O207" s="11"/>
-      <c r="P207" s="13" t="s">
-        <v>203</v>
-      </c>
+      <c r="P207" s="13"/>
       <c r="Q207" s="11"/>
       <c r="R207" s="11"/>
     </row>
@@ -6370,9 +4731,7 @@
       <c r="M208" s="11"/>
       <c r="N208" s="11"/>
       <c r="O208" s="11"/>
-      <c r="P208" s="13" t="s">
-        <v>204</v>
-      </c>
+      <c r="P208" s="13"/>
       <c r="Q208" s="11"/>
       <c r="R208" s="11"/>
     </row>
@@ -6392,9 +4751,7 @@
       <c r="M209" s="11"/>
       <c r="N209" s="11"/>
       <c r="O209" s="11"/>
-      <c r="P209" s="13" t="s">
-        <v>205</v>
-      </c>
+      <c r="P209" s="13"/>
       <c r="Q209" s="11"/>
       <c r="R209" s="11"/>
     </row>
@@ -6414,9 +4771,7 @@
       <c r="M210" s="11"/>
       <c r="N210" s="11"/>
       <c r="O210" s="11"/>
-      <c r="P210" s="13" t="s">
-        <v>206</v>
-      </c>
+      <c r="P210" s="13"/>
       <c r="Q210" s="11"/>
       <c r="R210" s="11"/>
     </row>
@@ -6436,9 +4791,7 @@
       <c r="M211" s="11"/>
       <c r="N211" s="11"/>
       <c r="O211" s="11"/>
-      <c r="P211" s="13" t="s">
-        <v>207</v>
-      </c>
+      <c r="P211" s="13"/>
       <c r="Q211" s="11"/>
       <c r="R211" s="11"/>
     </row>
@@ -6458,9 +4811,7 @@
       <c r="M212" s="11"/>
       <c r="N212" s="11"/>
       <c r="O212" s="11"/>
-      <c r="P212" s="13" t="s">
-        <v>208</v>
-      </c>
+      <c r="P212" s="13"/>
       <c r="Q212" s="11"/>
       <c r="R212" s="11"/>
     </row>
@@ -6480,9 +4831,7 @@
       <c r="M213" s="11"/>
       <c r="N213" s="11"/>
       <c r="O213" s="11"/>
-      <c r="P213" s="13" t="s">
-        <v>209</v>
-      </c>
+      <c r="P213" s="13"/>
       <c r="Q213" s="11"/>
       <c r="R213" s="11"/>
     </row>
@@ -6502,9 +4851,7 @@
       <c r="M214" s="11"/>
       <c r="N214" s="11"/>
       <c r="O214" s="11"/>
-      <c r="P214" s="13" t="s">
-        <v>210</v>
-      </c>
+      <c r="P214" s="13"/>
       <c r="Q214" s="11"/>
       <c r="R214" s="11"/>
     </row>
@@ -6524,9 +4871,7 @@
       <c r="M215" s="11"/>
       <c r="N215" s="11"/>
       <c r="O215" s="11"/>
-      <c r="P215" s="13" t="s">
-        <v>211</v>
-      </c>
+      <c r="P215" s="13"/>
       <c r="Q215" s="11"/>
       <c r="R215" s="11"/>
     </row>
@@ -6546,9 +4891,7 @@
       <c r="M216" s="11"/>
       <c r="N216" s="11"/>
       <c r="O216" s="11"/>
-      <c r="P216" s="13" t="s">
-        <v>212</v>
-      </c>
+      <c r="P216" s="13"/>
       <c r="Q216" s="11"/>
       <c r="R216" s="11"/>
     </row>
@@ -6568,9 +4911,7 @@
       <c r="M217" s="11"/>
       <c r="N217" s="11"/>
       <c r="O217" s="11"/>
-      <c r="P217" s="13" t="s">
-        <v>213</v>
-      </c>
+      <c r="P217" s="13"/>
       <c r="Q217" s="11"/>
       <c r="R217" s="11"/>
     </row>
@@ -6590,9 +4931,7 @@
       <c r="M218" s="11"/>
       <c r="N218" s="11"/>
       <c r="O218" s="11"/>
-      <c r="P218" s="13" t="s">
-        <v>214</v>
-      </c>
+      <c r="P218" s="13"/>
       <c r="Q218" s="11"/>
       <c r="R218" s="11"/>
     </row>
@@ -6612,9 +4951,7 @@
       <c r="M219" s="11"/>
       <c r="N219" s="11"/>
       <c r="O219" s="11"/>
-      <c r="P219" s="13" t="s">
-        <v>215</v>
-      </c>
+      <c r="P219" s="13"/>
       <c r="Q219" s="11"/>
       <c r="R219" s="11"/>
     </row>
@@ -6634,9 +4971,7 @@
       <c r="M220" s="11"/>
       <c r="N220" s="11"/>
       <c r="O220" s="11"/>
-      <c r="P220" s="13" t="s">
-        <v>216</v>
-      </c>
+      <c r="P220" s="13"/>
       <c r="Q220" s="11"/>
       <c r="R220" s="11"/>
     </row>
@@ -6656,9 +4991,7 @@
       <c r="M221" s="11"/>
       <c r="N221" s="11"/>
       <c r="O221" s="11"/>
-      <c r="P221" s="13" t="s">
-        <v>217</v>
-      </c>
+      <c r="P221" s="13"/>
       <c r="Q221" s="11"/>
       <c r="R221" s="11"/>
     </row>
@@ -6678,9 +5011,7 @@
       <c r="M222" s="11"/>
       <c r="N222" s="11"/>
       <c r="O222" s="11"/>
-      <c r="P222" s="13" t="s">
-        <v>218</v>
-      </c>
+      <c r="P222" s="13"/>
       <c r="Q222" s="11"/>
       <c r="R222" s="11"/>
     </row>
@@ -6700,9 +5031,7 @@
       <c r="M223" s="11"/>
       <c r="N223" s="11"/>
       <c r="O223" s="11"/>
-      <c r="P223" s="13" t="s">
-        <v>219</v>
-      </c>
+      <c r="P223" s="13"/>
       <c r="Q223" s="11"/>
       <c r="R223" s="11"/>
     </row>
@@ -6722,9 +5051,7 @@
       <c r="M224" s="11"/>
       <c r="N224" s="11"/>
       <c r="O224" s="11"/>
-      <c r="P224" s="13" t="s">
-        <v>220</v>
-      </c>
+      <c r="P224" s="13"/>
       <c r="Q224" s="11"/>
       <c r="R224" s="11"/>
     </row>
@@ -6744,9 +5071,7 @@
       <c r="M225" s="11"/>
       <c r="N225" s="11"/>
       <c r="O225" s="11"/>
-      <c r="P225" s="13" t="s">
-        <v>221</v>
-      </c>
+      <c r="P225" s="13"/>
       <c r="Q225" s="11"/>
       <c r="R225" s="11"/>
     </row>
@@ -6766,9 +5091,7 @@
       <c r="M226" s="11"/>
       <c r="N226" s="11"/>
       <c r="O226" s="11"/>
-      <c r="P226" s="13" t="s">
-        <v>222</v>
-      </c>
+      <c r="P226" s="13"/>
       <c r="Q226" s="11"/>
       <c r="R226" s="11"/>
     </row>
@@ -6788,9 +5111,7 @@
       <c r="M227" s="11"/>
       <c r="N227" s="11"/>
       <c r="O227" s="11"/>
-      <c r="P227" s="13" t="s">
-        <v>223</v>
-      </c>
+      <c r="P227" s="13"/>
       <c r="Q227" s="11"/>
       <c r="R227" s="11"/>
     </row>
@@ -6810,9 +5131,7 @@
       <c r="M228" s="11"/>
       <c r="N228" s="11"/>
       <c r="O228" s="11"/>
-      <c r="P228" s="13" t="s">
-        <v>224</v>
-      </c>
+      <c r="P228" s="13"/>
       <c r="Q228" s="11"/>
       <c r="R228" s="11"/>
     </row>
@@ -6832,9 +5151,7 @@
       <c r="M229" s="11"/>
       <c r="N229" s="11"/>
       <c r="O229" s="11"/>
-      <c r="P229" s="13" t="s">
-        <v>225</v>
-      </c>
+      <c r="P229" s="13"/>
       <c r="Q229" s="11"/>
       <c r="R229" s="11"/>
     </row>
@@ -6854,9 +5171,7 @@
       <c r="M230" s="11"/>
       <c r="N230" s="11"/>
       <c r="O230" s="11"/>
-      <c r="P230" s="13" t="s">
-        <v>226</v>
-      </c>
+      <c r="P230" s="13"/>
       <c r="Q230" s="11"/>
       <c r="R230" s="11"/>
     </row>
@@ -6876,9 +5191,7 @@
       <c r="M231" s="11"/>
       <c r="N231" s="11"/>
       <c r="O231" s="11"/>
-      <c r="P231" s="13" t="s">
-        <v>227</v>
-      </c>
+      <c r="P231" s="13"/>
       <c r="Q231" s="11"/>
       <c r="R231" s="11"/>
     </row>
@@ -6898,9 +5211,7 @@
       <c r="M232" s="11"/>
       <c r="N232" s="11"/>
       <c r="O232" s="11"/>
-      <c r="P232" s="13" t="s">
-        <v>228</v>
-      </c>
+      <c r="P232" s="13"/>
       <c r="Q232" s="11"/>
       <c r="R232" s="11"/>
     </row>
@@ -6920,9 +5231,7 @@
       <c r="M233" s="11"/>
       <c r="N233" s="11"/>
       <c r="O233" s="11"/>
-      <c r="P233" s="13" t="s">
-        <v>229</v>
-      </c>
+      <c r="P233" s="13"/>
       <c r="Q233" s="11"/>
       <c r="R233" s="11"/>
     </row>
@@ -6942,9 +5251,7 @@
       <c r="M234" s="11"/>
       <c r="N234" s="11"/>
       <c r="O234" s="11"/>
-      <c r="P234" s="14" t="s">
-        <v>230</v>
-      </c>
+      <c r="P234" s="14"/>
       <c r="Q234" s="11"/>
       <c r="R234" s="11"/>
     </row>
@@ -6964,9 +5271,7 @@
       <c r="M235" s="11"/>
       <c r="N235" s="11"/>
       <c r="O235" s="11"/>
-      <c r="P235" s="13" t="s">
-        <v>231</v>
-      </c>
+      <c r="P235" s="13"/>
       <c r="Q235" s="11"/>
       <c r="R235" s="11"/>
     </row>
@@ -6986,9 +5291,7 @@
       <c r="M236" s="11"/>
       <c r="N236" s="11"/>
       <c r="O236" s="11"/>
-      <c r="P236" s="13" t="s">
-        <v>232</v>
-      </c>
+      <c r="P236" s="13"/>
       <c r="Q236" s="11"/>
       <c r="R236" s="11"/>
     </row>
@@ -7008,9 +5311,7 @@
       <c r="M237" s="11"/>
       <c r="N237" s="11"/>
       <c r="O237" s="11"/>
-      <c r="P237" s="13" t="s">
-        <v>233</v>
-      </c>
+      <c r="P237" s="13"/>
       <c r="Q237" s="11"/>
       <c r="R237" s="11"/>
     </row>
@@ -7030,9 +5331,7 @@
       <c r="M238" s="11"/>
       <c r="N238" s="11"/>
       <c r="O238" s="11"/>
-      <c r="P238" s="13" t="s">
-        <v>234</v>
-      </c>
+      <c r="P238" s="13"/>
       <c r="Q238" s="11"/>
       <c r="R238" s="11"/>
     </row>
@@ -7052,9 +5351,7 @@
       <c r="M239" s="11"/>
       <c r="N239" s="11"/>
       <c r="O239" s="11"/>
-      <c r="P239" s="13" t="s">
-        <v>235</v>
-      </c>
+      <c r="P239" s="13"/>
       <c r="Q239" s="11"/>
       <c r="R239" s="11"/>
     </row>
@@ -7074,9 +5371,7 @@
       <c r="M240" s="11"/>
       <c r="N240" s="11"/>
       <c r="O240" s="11"/>
-      <c r="P240" s="13" t="s">
-        <v>236</v>
-      </c>
+      <c r="P240" s="13"/>
       <c r="Q240" s="11"/>
       <c r="R240" s="11"/>
     </row>
@@ -7096,9 +5391,7 @@
       <c r="M241" s="11"/>
       <c r="N241" s="11"/>
       <c r="O241" s="11"/>
-      <c r="P241" s="13" t="s">
-        <v>237</v>
-      </c>
+      <c r="P241" s="13"/>
       <c r="Q241" s="11"/>
       <c r="R241" s="11"/>
     </row>
@@ -7118,9 +5411,7 @@
       <c r="M242" s="11"/>
       <c r="N242" s="11"/>
       <c r="O242" s="11"/>
-      <c r="P242" s="13" t="s">
-        <v>238</v>
-      </c>
+      <c r="P242" s="13"/>
       <c r="Q242" s="11"/>
       <c r="R242" s="11"/>
     </row>
@@ -7140,9 +5431,7 @@
       <c r="M243" s="11"/>
       <c r="N243" s="11"/>
       <c r="O243" s="11"/>
-      <c r="P243" s="13" t="s">
-        <v>239</v>
-      </c>
+      <c r="P243" s="13"/>
       <c r="Q243" s="11"/>
       <c r="R243" s="11"/>
     </row>
@@ -7162,9 +5451,7 @@
       <c r="M244" s="11"/>
       <c r="N244" s="11"/>
       <c r="O244" s="11"/>
-      <c r="P244" s="13" t="s">
-        <v>240</v>
-      </c>
+      <c r="P244" s="13"/>
       <c r="Q244" s="11"/>
       <c r="R244" s="11"/>
     </row>
@@ -7184,9 +5471,7 @@
       <c r="M245" s="11"/>
       <c r="N245" s="11"/>
       <c r="O245" s="11"/>
-      <c r="P245" s="13" t="s">
-        <v>241</v>
-      </c>
+      <c r="P245" s="13"/>
       <c r="Q245" s="11"/>
       <c r="R245" s="11"/>
     </row>
@@ -7206,9 +5491,7 @@
       <c r="M246" s="11"/>
       <c r="N246" s="11"/>
       <c r="O246" s="11"/>
-      <c r="P246" s="13" t="s">
-        <v>241</v>
-      </c>
+      <c r="P246" s="13"/>
       <c r="Q246" s="11"/>
       <c r="R246" s="11"/>
     </row>
@@ -7228,9 +5511,7 @@
       <c r="M247" s="11"/>
       <c r="N247" s="11"/>
       <c r="O247" s="11"/>
-      <c r="P247" s="13" t="s">
-        <v>242</v>
-      </c>
+      <c r="P247" s="13"/>
       <c r="Q247" s="11"/>
       <c r="R247" s="11"/>
     </row>
@@ -7250,9 +5531,7 @@
       <c r="M248" s="11"/>
       <c r="N248" s="11"/>
       <c r="O248" s="11"/>
-      <c r="P248" s="13" t="s">
-        <v>243</v>
-      </c>
+      <c r="P248" s="13"/>
       <c r="Q248" s="11"/>
       <c r="R248" s="11"/>
     </row>
@@ -7272,9 +5551,7 @@
       <c r="M249" s="11"/>
       <c r="N249" s="11"/>
       <c r="O249" s="11"/>
-      <c r="P249" s="13" t="s">
-        <v>244</v>
-      </c>
+      <c r="P249" s="13"/>
       <c r="Q249" s="11"/>
       <c r="R249" s="11"/>
     </row>
@@ -7294,9 +5571,7 @@
       <c r="M250" s="11"/>
       <c r="N250" s="11"/>
       <c r="O250" s="11"/>
-      <c r="P250" s="13" t="s">
-        <v>245</v>
-      </c>
+      <c r="P250" s="13"/>
       <c r="Q250" s="11"/>
       <c r="R250" s="11"/>
     </row>
@@ -7316,9 +5591,7 @@
       <c r="M251" s="11"/>
       <c r="N251" s="11"/>
       <c r="O251" s="11"/>
-      <c r="P251" s="13" t="s">
-        <v>246</v>
-      </c>
+      <c r="P251" s="13"/>
       <c r="Q251" s="11"/>
       <c r="R251" s="11"/>
     </row>
@@ -7338,9 +5611,7 @@
       <c r="M252" s="11"/>
       <c r="N252" s="11"/>
       <c r="O252" s="11"/>
-      <c r="P252" s="13" t="s">
-        <v>247</v>
-      </c>
+      <c r="P252" s="13"/>
       <c r="Q252" s="11"/>
       <c r="R252" s="11"/>
     </row>
@@ -7360,9 +5631,7 @@
       <c r="M253" s="11"/>
       <c r="N253" s="11"/>
       <c r="O253" s="11"/>
-      <c r="P253" s="13" t="s">
-        <v>248</v>
-      </c>
+      <c r="P253" s="13"/>
       <c r="Q253" s="11"/>
       <c r="R253" s="11"/>
     </row>
@@ -7382,9 +5651,7 @@
       <c r="M254" s="11"/>
       <c r="N254" s="11"/>
       <c r="O254" s="11"/>
-      <c r="P254" s="13" t="s">
-        <v>249</v>
-      </c>
+      <c r="P254" s="13"/>
       <c r="Q254" s="11"/>
       <c r="R254" s="11"/>
     </row>
@@ -7404,9 +5671,7 @@
       <c r="M255" s="11"/>
       <c r="N255" s="11"/>
       <c r="O255" s="11"/>
-      <c r="P255" s="13" t="s">
-        <v>250</v>
-      </c>
+      <c r="P255" s="13"/>
       <c r="Q255" s="11"/>
       <c r="R255" s="11"/>
     </row>
@@ -7426,9 +5691,7 @@
       <c r="M256" s="11"/>
       <c r="N256" s="11"/>
       <c r="O256" s="11"/>
-      <c r="P256" s="13" t="s">
-        <v>251</v>
-      </c>
+      <c r="P256" s="13"/>
       <c r="Q256" s="11"/>
       <c r="R256" s="11"/>
     </row>
@@ -7448,9 +5711,7 @@
       <c r="M257" s="11"/>
       <c r="N257" s="11"/>
       <c r="O257" s="11"/>
-      <c r="P257" s="13" t="s">
-        <v>252</v>
-      </c>
+      <c r="P257" s="13"/>
       <c r="Q257" s="11"/>
       <c r="R257" s="11"/>
     </row>
@@ -7470,9 +5731,7 @@
       <c r="M258" s="11"/>
       <c r="N258" s="11"/>
       <c r="O258" s="11"/>
-      <c r="P258" s="13" t="s">
-        <v>253</v>
-      </c>
+      <c r="P258" s="13"/>
       <c r="Q258" s="11"/>
       <c r="R258" s="11"/>
     </row>
@@ -7492,9 +5751,7 @@
       <c r="M259" s="11"/>
       <c r="N259" s="11"/>
       <c r="O259" s="11"/>
-      <c r="P259" s="13" t="s">
-        <v>254</v>
-      </c>
+      <c r="P259" s="13"/>
       <c r="Q259" s="11"/>
       <c r="R259" s="11"/>
     </row>
@@ -7514,9 +5771,7 @@
       <c r="M260" s="11"/>
       <c r="N260" s="11"/>
       <c r="O260" s="11"/>
-      <c r="P260" s="13" t="s">
-        <v>255</v>
-      </c>
+      <c r="P260" s="13"/>
       <c r="Q260" s="11"/>
       <c r="R260" s="11"/>
     </row>
@@ -7536,9 +5791,7 @@
       <c r="M261" s="11"/>
       <c r="N261" s="11"/>
       <c r="O261" s="11"/>
-      <c r="P261" s="13" t="s">
-        <v>256</v>
-      </c>
+      <c r="P261" s="13"/>
       <c r="Q261" s="11"/>
       <c r="R261" s="11"/>
     </row>
@@ -7558,9 +5811,7 @@
       <c r="M262" s="11"/>
       <c r="N262" s="11"/>
       <c r="O262" s="11"/>
-      <c r="P262" s="13" t="s">
-        <v>257</v>
-      </c>
+      <c r="P262" s="13"/>
       <c r="Q262" s="11"/>
       <c r="R262" s="11"/>
     </row>
@@ -7580,9 +5831,7 @@
       <c r="M263" s="11"/>
       <c r="N263" s="11"/>
       <c r="O263" s="11"/>
-      <c r="P263" s="13" t="s">
-        <v>258</v>
-      </c>
+      <c r="P263" s="13"/>
       <c r="Q263" s="11"/>
       <c r="R263" s="11"/>
     </row>
@@ -7602,9 +5851,7 @@
       <c r="M264" s="11"/>
       <c r="N264" s="11"/>
       <c r="O264" s="11"/>
-      <c r="P264" s="13" t="s">
-        <v>259</v>
-      </c>
+      <c r="P264" s="13"/>
       <c r="Q264" s="11"/>
       <c r="R264" s="11"/>
     </row>
@@ -7624,9 +5871,7 @@
       <c r="M265" s="11"/>
       <c r="N265" s="11"/>
       <c r="O265" s="11"/>
-      <c r="P265" s="13" t="s">
-        <v>260</v>
-      </c>
+      <c r="P265" s="13"/>
       <c r="Q265" s="11"/>
       <c r="R265" s="11"/>
     </row>
@@ -7646,9 +5891,7 @@
       <c r="M266" s="11"/>
       <c r="N266" s="11"/>
       <c r="O266" s="11"/>
-      <c r="P266" s="13" t="s">
-        <v>261</v>
-      </c>
+      <c r="P266" s="13"/>
       <c r="Q266" s="11"/>
       <c r="R266" s="11"/>
     </row>
@@ -7668,9 +5911,7 @@
       <c r="M267" s="11"/>
       <c r="N267" s="11"/>
       <c r="O267" s="11"/>
-      <c r="P267" s="13" t="s">
-        <v>262</v>
-      </c>
+      <c r="P267" s="13"/>
       <c r="Q267" s="11"/>
       <c r="R267" s="11"/>
     </row>
@@ -7690,9 +5931,7 @@
       <c r="M268" s="11"/>
       <c r="N268" s="11"/>
       <c r="O268" s="11"/>
-      <c r="P268" s="13" t="s">
-        <v>263</v>
-      </c>
+      <c r="P268" s="13"/>
       <c r="Q268" s="11"/>
       <c r="R268" s="11"/>
     </row>
@@ -7712,9 +5951,7 @@
       <c r="M269" s="11"/>
       <c r="N269" s="11"/>
       <c r="O269" s="11"/>
-      <c r="P269" s="13" t="s">
-        <v>264</v>
-      </c>
+      <c r="P269" s="13"/>
       <c r="Q269" s="11"/>
       <c r="R269" s="11"/>
     </row>
@@ -7734,9 +5971,7 @@
       <c r="M270" s="11"/>
       <c r="N270" s="11"/>
       <c r="O270" s="11"/>
-      <c r="P270" s="13" t="s">
-        <v>265</v>
-      </c>
+      <c r="P270" s="13"/>
       <c r="Q270" s="11"/>
       <c r="R270" s="11"/>
     </row>
@@ -7756,9 +5991,7 @@
       <c r="M271" s="11"/>
       <c r="N271" s="11"/>
       <c r="O271" s="11"/>
-      <c r="P271" s="13" t="s">
-        <v>266</v>
-      </c>
+      <c r="P271" s="13"/>
       <c r="Q271" s="11"/>
       <c r="R271" s="11"/>
     </row>
@@ -7778,9 +6011,7 @@
       <c r="M272" s="11"/>
       <c r="N272" s="11"/>
       <c r="O272" s="11"/>
-      <c r="P272" s="13" t="s">
-        <v>267</v>
-      </c>
+      <c r="P272" s="13"/>
       <c r="Q272" s="11"/>
       <c r="R272" s="11"/>
     </row>
@@ -7800,9 +6031,7 @@
       <c r="M273" s="11"/>
       <c r="N273" s="11"/>
       <c r="O273" s="11"/>
-      <c r="P273" s="13" t="s">
-        <v>268</v>
-      </c>
+      <c r="P273" s="13"/>
       <c r="Q273" s="11"/>
       <c r="R273" s="11"/>
     </row>
@@ -7822,9 +6051,7 @@
       <c r="M274" s="11"/>
       <c r="N274" s="11"/>
       <c r="O274" s="11"/>
-      <c r="P274" s="13" t="s">
-        <v>269</v>
-      </c>
+      <c r="P274" s="13"/>
       <c r="Q274" s="11"/>
       <c r="R274" s="11"/>
     </row>
@@ -7844,9 +6071,7 @@
       <c r="M275" s="11"/>
       <c r="N275" s="11"/>
       <c r="O275" s="11"/>
-      <c r="P275" s="13" t="s">
-        <v>270</v>
-      </c>
+      <c r="P275" s="13"/>
       <c r="Q275" s="11"/>
       <c r="R275" s="11"/>
     </row>
@@ -7866,9 +6091,7 @@
       <c r="M276" s="11"/>
       <c r="N276" s="11"/>
       <c r="O276" s="11"/>
-      <c r="P276" s="13" t="s">
-        <v>271</v>
-      </c>
+      <c r="P276" s="13"/>
       <c r="Q276" s="11"/>
       <c r="R276" s="11"/>
     </row>
@@ -7888,9 +6111,7 @@
       <c r="M277" s="11"/>
       <c r="N277" s="11"/>
       <c r="O277" s="11"/>
-      <c r="P277" s="13" t="s">
-        <v>272</v>
-      </c>
+      <c r="P277" s="13"/>
       <c r="Q277" s="11"/>
       <c r="R277" s="11"/>
     </row>
@@ -7910,9 +6131,7 @@
       <c r="M278" s="11"/>
       <c r="N278" s="11"/>
       <c r="O278" s="11"/>
-      <c r="P278" s="13" t="s">
-        <v>273</v>
-      </c>
+      <c r="P278" s="13"/>
       <c r="Q278" s="11"/>
       <c r="R278" s="11"/>
     </row>
@@ -7932,9 +6151,7 @@
       <c r="M279" s="11"/>
       <c r="N279" s="11"/>
       <c r="O279" s="11"/>
-      <c r="P279" s="13" t="s">
-        <v>274</v>
-      </c>
+      <c r="P279" s="13"/>
       <c r="Q279" s="11"/>
       <c r="R279" s="11"/>
     </row>
@@ -7954,9 +6171,7 @@
       <c r="M280" s="11"/>
       <c r="N280" s="11"/>
       <c r="O280" s="11"/>
-      <c r="P280" s="13" t="s">
-        <v>275</v>
-      </c>
+      <c r="P280" s="13"/>
       <c r="Q280" s="11"/>
       <c r="R280" s="11"/>
     </row>
@@ -7976,9 +6191,7 @@
       <c r="M281" s="11"/>
       <c r="N281" s="11"/>
       <c r="O281" s="11"/>
-      <c r="P281" s="13" t="s">
-        <v>276</v>
-      </c>
+      <c r="P281" s="13"/>
       <c r="Q281" s="11"/>
       <c r="R281" s="11"/>
     </row>
@@ -7998,9 +6211,7 @@
       <c r="M282" s="11"/>
       <c r="N282" s="11"/>
       <c r="O282" s="11"/>
-      <c r="P282" s="13" t="s">
-        <v>277</v>
-      </c>
+      <c r="P282" s="13"/>
       <c r="Q282" s="11"/>
       <c r="R282" s="11"/>
     </row>
@@ -8020,9 +6231,7 @@
       <c r="M283" s="11"/>
       <c r="N283" s="11"/>
       <c r="O283" s="11"/>
-      <c r="P283" s="13" t="s">
-        <v>278</v>
-      </c>
+      <c r="P283" s="13"/>
       <c r="Q283" s="11"/>
       <c r="R283" s="11"/>
     </row>
@@ -8042,9 +6251,7 @@
       <c r="M284" s="11"/>
       <c r="N284" s="11"/>
       <c r="O284" s="11"/>
-      <c r="P284" s="13" t="s">
-        <v>279</v>
-      </c>
+      <c r="P284" s="13"/>
       <c r="Q284" s="11"/>
       <c r="R284" s="11"/>
     </row>
@@ -8064,9 +6271,7 @@
       <c r="M285" s="11"/>
       <c r="N285" s="11"/>
       <c r="O285" s="11"/>
-      <c r="P285" s="13" t="s">
-        <v>280</v>
-      </c>
+      <c r="P285" s="13"/>
       <c r="Q285" s="11"/>
       <c r="R285" s="11"/>
     </row>
@@ -8086,9 +6291,7 @@
       <c r="M286" s="11"/>
       <c r="N286" s="11"/>
       <c r="O286" s="11"/>
-      <c r="P286" s="13" t="s">
-        <v>281</v>
-      </c>
+      <c r="P286" s="13"/>
       <c r="Q286" s="11"/>
       <c r="R286" s="11"/>
     </row>
@@ -8108,9 +6311,7 @@
       <c r="M287" s="11"/>
       <c r="N287" s="11"/>
       <c r="O287" s="11"/>
-      <c r="P287" s="13" t="s">
-        <v>282</v>
-      </c>
+      <c r="P287" s="13"/>
       <c r="Q287" s="11"/>
       <c r="R287" s="11"/>
     </row>
@@ -8130,9 +6331,7 @@
       <c r="M288" s="11"/>
       <c r="N288" s="11"/>
       <c r="O288" s="11"/>
-      <c r="P288" s="13" t="s">
-        <v>283</v>
-      </c>
+      <c r="P288" s="13"/>
       <c r="Q288" s="11"/>
       <c r="R288" s="11"/>
     </row>
@@ -8152,9 +6351,7 @@
       <c r="M289" s="11"/>
       <c r="N289" s="11"/>
       <c r="O289" s="11"/>
-      <c r="P289" s="13" t="s">
-        <v>284</v>
-      </c>
+      <c r="P289" s="13"/>
       <c r="Q289" s="11"/>
       <c r="R289" s="11"/>
     </row>
@@ -8174,9 +6371,7 @@
       <c r="M290" s="11"/>
       <c r="N290" s="11"/>
       <c r="O290" s="11"/>
-      <c r="P290" s="13" t="s">
-        <v>285</v>
-      </c>
+      <c r="P290" s="13"/>
       <c r="Q290" s="11"/>
       <c r="R290" s="11"/>
     </row>
@@ -8196,9 +6391,7 @@
       <c r="M291" s="11"/>
       <c r="N291" s="11"/>
       <c r="O291" s="11"/>
-      <c r="P291" s="13" t="s">
-        <v>286</v>
-      </c>
+      <c r="P291" s="13"/>
       <c r="Q291" s="11"/>
       <c r="R291" s="11"/>
     </row>
@@ -8218,9 +6411,7 @@
       <c r="M292" s="11"/>
       <c r="N292" s="11"/>
       <c r="O292" s="11"/>
-      <c r="P292" s="13" t="s">
-        <v>287</v>
-      </c>
+      <c r="P292" s="13"/>
       <c r="Q292" s="11"/>
       <c r="R292" s="11"/>
     </row>
@@ -8240,9 +6431,7 @@
       <c r="M293" s="11"/>
       <c r="N293" s="11"/>
       <c r="O293" s="11"/>
-      <c r="P293" s="13" t="s">
-        <v>288</v>
-      </c>
+      <c r="P293" s="13"/>
       <c r="Q293" s="11"/>
       <c r="R293" s="11"/>
     </row>
@@ -8262,9 +6451,7 @@
       <c r="M294" s="11"/>
       <c r="N294" s="11"/>
       <c r="O294" s="11"/>
-      <c r="P294" s="13" t="s">
-        <v>289</v>
-      </c>
+      <c r="P294" s="13"/>
       <c r="Q294" s="11"/>
       <c r="R294" s="11"/>
     </row>
@@ -8284,9 +6471,7 @@
       <c r="M295" s="11"/>
       <c r="N295" s="11"/>
       <c r="O295" s="11"/>
-      <c r="P295" s="13" t="s">
-        <v>290</v>
-      </c>
+      <c r="P295" s="13"/>
       <c r="Q295" s="11"/>
       <c r="R295" s="11"/>
     </row>
@@ -8306,9 +6491,7 @@
       <c r="M296" s="11"/>
       <c r="N296" s="11"/>
       <c r="O296" s="11"/>
-      <c r="P296" s="13" t="s">
-        <v>291</v>
-      </c>
+      <c r="P296" s="13"/>
       <c r="Q296" s="11"/>
       <c r="R296" s="11"/>
     </row>
@@ -8328,9 +6511,7 @@
       <c r="M297" s="11"/>
       <c r="N297" s="11"/>
       <c r="O297" s="11"/>
-      <c r="P297" s="13" t="s">
-        <v>292</v>
-      </c>
+      <c r="P297" s="13"/>
       <c r="Q297" s="11"/>
       <c r="R297" s="11"/>
     </row>
@@ -8350,9 +6531,7 @@
       <c r="M298" s="11"/>
       <c r="N298" s="11"/>
       <c r="O298" s="11"/>
-      <c r="P298" s="13" t="s">
-        <v>293</v>
-      </c>
+      <c r="P298" s="13"/>
       <c r="Q298" s="11"/>
       <c r="R298" s="11"/>
     </row>
@@ -8372,9 +6551,7 @@
       <c r="M299" s="11"/>
       <c r="N299" s="11"/>
       <c r="O299" s="11"/>
-      <c r="P299" s="13" t="s">
-        <v>294</v>
-      </c>
+      <c r="P299" s="13"/>
       <c r="Q299" s="11"/>
       <c r="R299" s="11"/>
     </row>
@@ -8394,9 +6571,7 @@
       <c r="M300" s="11"/>
       <c r="N300" s="11"/>
       <c r="O300" s="11"/>
-      <c r="P300" s="13" t="s">
-        <v>295</v>
-      </c>
+      <c r="P300" s="13"/>
       <c r="Q300" s="11"/>
       <c r="R300" s="11"/>
     </row>
@@ -8416,9 +6591,7 @@
       <c r="M301" s="11"/>
       <c r="N301" s="11"/>
       <c r="O301" s="11"/>
-      <c r="P301" s="13" t="s">
-        <v>296</v>
-      </c>
+      <c r="P301" s="13"/>
       <c r="Q301" s="11"/>
       <c r="R301" s="11"/>
     </row>
@@ -8438,9 +6611,7 @@
       <c r="M302" s="11"/>
       <c r="N302" s="11"/>
       <c r="O302" s="11"/>
-      <c r="P302" s="13" t="s">
-        <v>297</v>
-      </c>
+      <c r="P302" s="13"/>
       <c r="Q302" s="11"/>
       <c r="R302" s="11"/>
     </row>
@@ -8460,9 +6631,7 @@
       <c r="M303" s="11"/>
       <c r="N303" s="11"/>
       <c r="O303" s="11"/>
-      <c r="P303" s="13" t="s">
-        <v>298</v>
-      </c>
+      <c r="P303" s="13"/>
       <c r="Q303" s="11"/>
       <c r="R303" s="11"/>
     </row>
@@ -8482,9 +6651,7 @@
       <c r="M304" s="11"/>
       <c r="N304" s="11"/>
       <c r="O304" s="11"/>
-      <c r="P304" s="13" t="s">
-        <v>299</v>
-      </c>
+      <c r="P304" s="13"/>
       <c r="Q304" s="11"/>
       <c r="R304" s="11"/>
     </row>
@@ -8504,9 +6671,7 @@
       <c r="M305" s="11"/>
       <c r="N305" s="11"/>
       <c r="O305" s="11"/>
-      <c r="P305" s="13" t="s">
-        <v>300</v>
-      </c>
+      <c r="P305" s="13"/>
       <c r="Q305" s="11"/>
       <c r="R305" s="11"/>
     </row>
@@ -8526,9 +6691,7 @@
       <c r="M306" s="11"/>
       <c r="N306" s="11"/>
       <c r="O306" s="11"/>
-      <c r="P306" s="13" t="s">
-        <v>301</v>
-      </c>
+      <c r="P306" s="13"/>
       <c r="Q306" s="11"/>
       <c r="R306" s="11"/>
     </row>
@@ -8548,9 +6711,7 @@
       <c r="M307" s="11"/>
       <c r="N307" s="11"/>
       <c r="O307" s="11"/>
-      <c r="P307" s="13" t="s">
-        <v>302</v>
-      </c>
+      <c r="P307" s="13"/>
       <c r="Q307" s="11"/>
       <c r="R307" s="11"/>
     </row>
@@ -8570,9 +6731,7 @@
       <c r="M308" s="11"/>
       <c r="N308" s="11"/>
       <c r="O308" s="11"/>
-      <c r="P308" s="13" t="s">
-        <v>303</v>
-      </c>
+      <c r="P308" s="13"/>
       <c r="Q308" s="11"/>
       <c r="R308" s="11"/>
     </row>
@@ -8592,9 +6751,7 @@
       <c r="M309" s="11"/>
       <c r="N309" s="11"/>
       <c r="O309" s="11"/>
-      <c r="P309" s="13" t="s">
-        <v>304</v>
-      </c>
+      <c r="P309" s="13"/>
       <c r="Q309" s="11"/>
       <c r="R309" s="11"/>
     </row>
@@ -8614,9 +6771,7 @@
       <c r="M310" s="11"/>
       <c r="N310" s="11"/>
       <c r="O310" s="11"/>
-      <c r="P310" s="13" t="s">
-        <v>305</v>
-      </c>
+      <c r="P310" s="13"/>
       <c r="Q310" s="11"/>
       <c r="R310" s="11"/>
     </row>
@@ -8636,9 +6791,7 @@
       <c r="M311" s="11"/>
       <c r="N311" s="11"/>
       <c r="O311" s="11"/>
-      <c r="P311" s="13" t="s">
-        <v>306</v>
-      </c>
+      <c r="P311" s="13"/>
       <c r="Q311" s="11"/>
       <c r="R311" s="11"/>
     </row>
@@ -8658,9 +6811,7 @@
       <c r="M312" s="11"/>
       <c r="N312" s="11"/>
       <c r="O312" s="11"/>
-      <c r="P312" s="13" t="s">
-        <v>307</v>
-      </c>
+      <c r="P312" s="13"/>
       <c r="Q312" s="11"/>
       <c r="R312" s="11"/>
     </row>
@@ -8680,9 +6831,7 @@
       <c r="M313" s="11"/>
       <c r="N313" s="11"/>
       <c r="O313" s="11"/>
-      <c r="P313" s="13" t="s">
-        <v>308</v>
-      </c>
+      <c r="P313" s="13"/>
       <c r="Q313" s="11"/>
       <c r="R313" s="11"/>
     </row>
@@ -8702,9 +6851,7 @@
       <c r="M314" s="11"/>
       <c r="N314" s="11"/>
       <c r="O314" s="11"/>
-      <c r="P314" s="13" t="s">
-        <v>309</v>
-      </c>
+      <c r="P314" s="13"/>
       <c r="Q314" s="11"/>
       <c r="R314" s="11"/>
     </row>
@@ -8724,9 +6871,7 @@
       <c r="M315" s="11"/>
       <c r="N315" s="11"/>
       <c r="O315" s="11"/>
-      <c r="P315" s="13" t="s">
-        <v>310</v>
-      </c>
+      <c r="P315" s="13"/>
       <c r="Q315" s="11"/>
       <c r="R315" s="11"/>
     </row>
@@ -8746,9 +6891,7 @@
       <c r="M316" s="11"/>
       <c r="N316" s="11"/>
       <c r="O316" s="11"/>
-      <c r="P316" s="13" t="s">
-        <v>311</v>
-      </c>
+      <c r="P316" s="13"/>
       <c r="Q316" s="11"/>
       <c r="R316" s="11"/>
     </row>
@@ -8768,9 +6911,7 @@
       <c r="M317" s="11"/>
       <c r="N317" s="11"/>
       <c r="O317" s="11"/>
-      <c r="P317" s="13" t="s">
-        <v>312</v>
-      </c>
+      <c r="P317" s="13"/>
       <c r="Q317" s="11"/>
       <c r="R317" s="11"/>
     </row>
@@ -8790,9 +6931,7 @@
       <c r="M318" s="11"/>
       <c r="N318" s="11"/>
       <c r="O318" s="11"/>
-      <c r="P318" s="13" t="s">
-        <v>313</v>
-      </c>
+      <c r="P318" s="13"/>
       <c r="Q318" s="11"/>
       <c r="R318" s="11"/>
     </row>
@@ -8812,9 +6951,7 @@
       <c r="M319" s="11"/>
       <c r="N319" s="11"/>
       <c r="O319" s="11"/>
-      <c r="P319" s="13" t="s">
-        <v>314</v>
-      </c>
+      <c r="P319" s="13"/>
       <c r="Q319" s="11"/>
       <c r="R319" s="11"/>
     </row>
@@ -8834,9 +6971,7 @@
       <c r="M320" s="11"/>
       <c r="N320" s="11"/>
       <c r="O320" s="11"/>
-      <c r="P320" s="13" t="s">
-        <v>315</v>
-      </c>
+      <c r="P320" s="13"/>
       <c r="Q320" s="11"/>
       <c r="R320" s="11"/>
     </row>
@@ -8856,9 +6991,7 @@
       <c r="M321" s="11"/>
       <c r="N321" s="11"/>
       <c r="O321" s="11"/>
-      <c r="P321" s="13" t="s">
-        <v>316</v>
-      </c>
+      <c r="P321" s="13"/>
       <c r="Q321" s="11"/>
       <c r="R321" s="11"/>
     </row>
@@ -8878,9 +7011,7 @@
       <c r="M322" s="11"/>
       <c r="N322" s="11"/>
       <c r="O322" s="11"/>
-      <c r="P322" s="13" t="s">
-        <v>317</v>
-      </c>
+      <c r="P322" s="13"/>
       <c r="Q322" s="11"/>
       <c r="R322" s="11"/>
     </row>
@@ -8900,9 +7031,7 @@
       <c r="M323" s="11"/>
       <c r="N323" s="11"/>
       <c r="O323" s="11"/>
-      <c r="P323" s="13" t="s">
-        <v>318</v>
-      </c>
+      <c r="P323" s="13"/>
       <c r="Q323" s="11"/>
       <c r="R323" s="11"/>
     </row>
@@ -8922,9 +7051,7 @@
       <c r="M324" s="11"/>
       <c r="N324" s="11"/>
       <c r="O324" s="11"/>
-      <c r="P324" s="13" t="s">
-        <v>319</v>
-      </c>
+      <c r="P324" s="13"/>
       <c r="Q324" s="11"/>
       <c r="R324" s="11"/>
     </row>
@@ -8944,9 +7071,7 @@
       <c r="M325" s="11"/>
       <c r="N325" s="11"/>
       <c r="O325" s="11"/>
-      <c r="P325" s="13" t="s">
-        <v>320</v>
-      </c>
+      <c r="P325" s="13"/>
       <c r="Q325" s="11"/>
       <c r="R325" s="11"/>
     </row>
@@ -8966,9 +7091,7 @@
       <c r="M326" s="11"/>
       <c r="N326" s="11"/>
       <c r="O326" s="11"/>
-      <c r="P326" s="13" t="s">
-        <v>321</v>
-      </c>
+      <c r="P326" s="13"/>
       <c r="Q326" s="11"/>
       <c r="R326" s="11"/>
     </row>
@@ -8988,9 +7111,7 @@
       <c r="M327" s="11"/>
       <c r="N327" s="11"/>
       <c r="O327" s="11"/>
-      <c r="P327" s="13" t="s">
-        <v>322</v>
-      </c>
+      <c r="P327" s="13"/>
       <c r="Q327" s="11"/>
       <c r="R327" s="11"/>
     </row>
@@ -9010,9 +7131,7 @@
       <c r="M328" s="11"/>
       <c r="N328" s="11"/>
       <c r="O328" s="11"/>
-      <c r="P328" s="13" t="s">
-        <v>323</v>
-      </c>
+      <c r="P328" s="13"/>
       <c r="Q328" s="11"/>
       <c r="R328" s="11"/>
     </row>
@@ -9032,9 +7151,7 @@
       <c r="M329" s="11"/>
       <c r="N329" s="11"/>
       <c r="O329" s="11"/>
-      <c r="P329" s="13" t="s">
-        <v>324</v>
-      </c>
+      <c r="P329" s="13"/>
       <c r="Q329" s="11"/>
       <c r="R329" s="11"/>
     </row>
@@ -9054,9 +7171,7 @@
       <c r="M330" s="11"/>
       <c r="N330" s="11"/>
       <c r="O330" s="11"/>
-      <c r="P330" s="13" t="s">
-        <v>324</v>
-      </c>
+      <c r="P330" s="13"/>
       <c r="Q330" s="11"/>
       <c r="R330" s="11"/>
     </row>
@@ -9076,9 +7191,7 @@
       <c r="M331" s="11"/>
       <c r="N331" s="11"/>
       <c r="O331" s="11"/>
-      <c r="P331" s="13" t="s">
-        <v>325</v>
-      </c>
+      <c r="P331" s="13"/>
       <c r="Q331" s="11"/>
       <c r="R331" s="11"/>
     </row>
@@ -9098,9 +7211,7 @@
       <c r="M332" s="11"/>
       <c r="N332" s="11"/>
       <c r="O332" s="11"/>
-      <c r="P332" s="13" t="s">
-        <v>326</v>
-      </c>
+      <c r="P332" s="13"/>
       <c r="Q332" s="11"/>
       <c r="R332" s="11"/>
     </row>
@@ -9120,9 +7231,7 @@
       <c r="M333" s="11"/>
       <c r="N333" s="11"/>
       <c r="O333" s="11"/>
-      <c r="P333" s="13" t="s">
-        <v>327</v>
-      </c>
+      <c r="P333" s="13"/>
       <c r="Q333" s="11"/>
       <c r="R333" s="11"/>
     </row>
@@ -9142,9 +7251,7 @@
       <c r="M334" s="11"/>
       <c r="N334" s="11"/>
       <c r="O334" s="11"/>
-      <c r="P334" s="13" t="s">
-        <v>328</v>
-      </c>
+      <c r="P334" s="13"/>
       <c r="Q334" s="11"/>
       <c r="R334" s="11"/>
     </row>
@@ -9164,9 +7271,7 @@
       <c r="M335" s="11"/>
       <c r="N335" s="11"/>
       <c r="O335" s="11"/>
-      <c r="P335" s="13" t="s">
-        <v>329</v>
-      </c>
+      <c r="P335" s="13"/>
       <c r="Q335" s="11"/>
       <c r="R335" s="11"/>
     </row>
@@ -9186,9 +7291,7 @@
       <c r="M336" s="11"/>
       <c r="N336" s="11"/>
       <c r="O336" s="11"/>
-      <c r="P336" s="13" t="s">
-        <v>330</v>
-      </c>
+      <c r="P336" s="13"/>
       <c r="Q336" s="11"/>
       <c r="R336" s="11"/>
     </row>
@@ -9208,9 +7311,7 @@
       <c r="M337" s="11"/>
       <c r="N337" s="11"/>
       <c r="O337" s="11"/>
-      <c r="P337" s="13" t="s">
-        <v>331</v>
-      </c>
+      <c r="P337" s="13"/>
       <c r="Q337" s="11"/>
       <c r="R337" s="11"/>
     </row>
@@ -9230,9 +7331,7 @@
       <c r="M338" s="11"/>
       <c r="N338" s="11"/>
       <c r="O338" s="11"/>
-      <c r="P338" s="13" t="s">
-        <v>332</v>
-      </c>
+      <c r="P338" s="13"/>
       <c r="Q338" s="11"/>
       <c r="R338" s="11"/>
     </row>
@@ -9252,9 +7351,7 @@
       <c r="M339" s="11"/>
       <c r="N339" s="11"/>
       <c r="O339" s="11"/>
-      <c r="P339" s="13" t="s">
-        <v>333</v>
-      </c>
+      <c r="P339" s="13"/>
       <c r="Q339" s="11"/>
       <c r="R339" s="11"/>
     </row>
@@ -9274,9 +7371,7 @@
       <c r="M340" s="11"/>
       <c r="N340" s="11"/>
       <c r="O340" s="11"/>
-      <c r="P340" s="13" t="s">
-        <v>334</v>
-      </c>
+      <c r="P340" s="13"/>
       <c r="Q340" s="11"/>
       <c r="R340" s="11"/>
     </row>
@@ -9296,9 +7391,7 @@
       <c r="M341" s="11"/>
       <c r="N341" s="11"/>
       <c r="O341" s="11"/>
-      <c r="P341" s="13" t="s">
-        <v>335</v>
-      </c>
+      <c r="P341" s="13"/>
       <c r="Q341" s="11"/>
       <c r="R341" s="11"/>
     </row>
@@ -9318,9 +7411,7 @@
       <c r="M342" s="11"/>
       <c r="N342" s="11"/>
       <c r="O342" s="11"/>
-      <c r="P342" s="13" t="s">
-        <v>336</v>
-      </c>
+      <c r="P342" s="13"/>
       <c r="Q342" s="11"/>
       <c r="R342" s="11"/>
     </row>
@@ -9340,9 +7431,7 @@
       <c r="M343" s="11"/>
       <c r="N343" s="11"/>
       <c r="O343" s="11"/>
-      <c r="P343" s="13" t="s">
-        <v>337</v>
-      </c>
+      <c r="P343" s="13"/>
       <c r="Q343" s="11"/>
       <c r="R343" s="11"/>
     </row>
@@ -9362,9 +7451,7 @@
       <c r="M344" s="11"/>
       <c r="N344" s="11"/>
       <c r="O344" s="11"/>
-      <c r="P344" s="13" t="s">
-        <v>338</v>
-      </c>
+      <c r="P344" s="13"/>
       <c r="Q344" s="11"/>
       <c r="R344" s="11"/>
     </row>
@@ -9384,9 +7471,7 @@
       <c r="M345" s="11"/>
       <c r="N345" s="11"/>
       <c r="O345" s="11"/>
-      <c r="P345" s="13" t="s">
-        <v>339</v>
-      </c>
+      <c r="P345" s="13"/>
       <c r="Q345" s="11"/>
       <c r="R345" s="11"/>
     </row>
@@ -9406,9 +7491,7 @@
       <c r="M346" s="11"/>
       <c r="N346" s="11"/>
       <c r="O346" s="11"/>
-      <c r="P346" s="13" t="s">
-        <v>340</v>
-      </c>
+      <c r="P346" s="13"/>
       <c r="Q346" s="11"/>
       <c r="R346" s="11"/>
     </row>
@@ -9428,9 +7511,7 @@
       <c r="M347" s="11"/>
       <c r="N347" s="11"/>
       <c r="O347" s="11"/>
-      <c r="P347" s="13" t="s">
-        <v>341</v>
-      </c>
+      <c r="P347" s="13"/>
       <c r="Q347" s="11"/>
       <c r="R347" s="11"/>
     </row>
@@ -9450,9 +7531,7 @@
       <c r="M348" s="11"/>
       <c r="N348" s="11"/>
       <c r="O348" s="11"/>
-      <c r="P348" s="13" t="s">
-        <v>342</v>
-      </c>
+      <c r="P348" s="13"/>
       <c r="Q348" s="11"/>
       <c r="R348" s="11"/>
     </row>
@@ -9472,9 +7551,7 @@
       <c r="M349" s="11"/>
       <c r="N349" s="11"/>
       <c r="O349" s="11"/>
-      <c r="P349" s="13" t="s">
-        <v>343</v>
-      </c>
+      <c r="P349" s="13"/>
       <c r="Q349" s="11"/>
       <c r="R349" s="11"/>
     </row>
@@ -9494,9 +7571,7 @@
       <c r="M350" s="11"/>
       <c r="N350" s="11"/>
       <c r="O350" s="11"/>
-      <c r="P350" s="13" t="s">
-        <v>344</v>
-      </c>
+      <c r="P350" s="13"/>
       <c r="Q350" s="11"/>
       <c r="R350" s="11"/>
     </row>
@@ -9516,9 +7591,7 @@
       <c r="M351" s="11"/>
       <c r="N351" s="11"/>
       <c r="O351" s="11"/>
-      <c r="P351" s="13" t="s">
-        <v>345</v>
-      </c>
+      <c r="P351" s="13"/>
       <c r="Q351" s="11"/>
       <c r="R351" s="11"/>
     </row>
@@ -9538,9 +7611,7 @@
       <c r="M352" s="11"/>
       <c r="N352" s="11"/>
       <c r="O352" s="11"/>
-      <c r="P352" s="13" t="s">
-        <v>346</v>
-      </c>
+      <c r="P352" s="13"/>
       <c r="Q352" s="11"/>
       <c r="R352" s="11"/>
     </row>
@@ -9560,9 +7631,7 @@
       <c r="M353" s="11"/>
       <c r="N353" s="11"/>
       <c r="O353" s="11"/>
-      <c r="P353" s="13" t="s">
-        <v>346</v>
-      </c>
+      <c r="P353" s="13"/>
       <c r="Q353" s="11"/>
       <c r="R353" s="11"/>
     </row>
@@ -9582,9 +7651,7 @@
       <c r="M354" s="11"/>
       <c r="N354" s="11"/>
       <c r="O354" s="11"/>
-      <c r="P354" s="13" t="s">
-        <v>347</v>
-      </c>
+      <c r="P354" s="13"/>
       <c r="Q354" s="11"/>
       <c r="R354" s="11"/>
     </row>
@@ -9604,9 +7671,7 @@
       <c r="M355" s="11"/>
       <c r="N355" s="11"/>
       <c r="O355" s="11"/>
-      <c r="P355" s="13" t="s">
-        <v>348</v>
-      </c>
+      <c r="P355" s="13"/>
       <c r="Q355" s="11"/>
       <c r="R355" s="11"/>
     </row>
@@ -9626,9 +7691,7 @@
       <c r="M356" s="11"/>
       <c r="N356" s="11"/>
       <c r="O356" s="11"/>
-      <c r="P356" s="13" t="s">
-        <v>349</v>
-      </c>
+      <c r="P356" s="13"/>
       <c r="Q356" s="11"/>
       <c r="R356" s="11"/>
     </row>
@@ -9648,9 +7711,7 @@
       <c r="M357" s="11"/>
       <c r="N357" s="11"/>
       <c r="O357" s="11"/>
-      <c r="P357" s="13" t="s">
-        <v>350</v>
-      </c>
+      <c r="P357" s="13"/>
       <c r="Q357" s="11"/>
       <c r="R357" s="11"/>
     </row>
@@ -9670,9 +7731,7 @@
       <c r="M358" s="11"/>
       <c r="N358" s="11"/>
       <c r="O358" s="11"/>
-      <c r="P358" s="13" t="s">
-        <v>351</v>
-      </c>
+      <c r="P358" s="13"/>
       <c r="Q358" s="11"/>
       <c r="R358" s="11"/>
     </row>
@@ -9692,9 +7751,7 @@
       <c r="M359" s="11"/>
       <c r="N359" s="11"/>
       <c r="O359" s="11"/>
-      <c r="P359" s="13" t="s">
-        <v>352</v>
-      </c>
+      <c r="P359" s="13"/>
       <c r="Q359" s="11"/>
       <c r="R359" s="11"/>
     </row>
@@ -9714,9 +7771,7 @@
       <c r="M360" s="11"/>
       <c r="N360" s="11"/>
       <c r="O360" s="11"/>
-      <c r="P360" s="13" t="s">
-        <v>353</v>
-      </c>
+      <c r="P360" s="13"/>
       <c r="Q360" s="11"/>
       <c r="R360" s="11"/>
     </row>
@@ -9736,9 +7791,7 @@
       <c r="M361" s="11"/>
       <c r="N361" s="11"/>
       <c r="O361" s="11"/>
-      <c r="P361" s="13" t="s">
-        <v>354</v>
-      </c>
+      <c r="P361" s="13"/>
       <c r="Q361" s="11"/>
       <c r="R361" s="11"/>
     </row>
@@ -9758,9 +7811,7 @@
       <c r="M362" s="11"/>
       <c r="N362" s="11"/>
       <c r="O362" s="11"/>
-      <c r="P362" s="13" t="s">
-        <v>355</v>
-      </c>
+      <c r="P362" s="13"/>
       <c r="Q362" s="11"/>
       <c r="R362" s="11"/>
     </row>
@@ -9780,9 +7831,7 @@
       <c r="M363" s="11"/>
       <c r="N363" s="11"/>
       <c r="O363" s="11"/>
-      <c r="P363" s="13" t="s">
-        <v>356</v>
-      </c>
+      <c r="P363" s="13"/>
       <c r="Q363" s="11"/>
       <c r="R363" s="11"/>
     </row>
@@ -9802,9 +7851,7 @@
       <c r="M364" s="11"/>
       <c r="N364" s="11"/>
       <c r="O364" s="11"/>
-      <c r="P364" s="13" t="s">
-        <v>357</v>
-      </c>
+      <c r="P364" s="13"/>
       <c r="Q364" s="11"/>
       <c r="R364" s="11"/>
     </row>
@@ -9824,9 +7871,7 @@
       <c r="M365" s="11"/>
       <c r="N365" s="11"/>
       <c r="O365" s="11"/>
-      <c r="P365" s="13" t="s">
-        <v>358</v>
-      </c>
+      <c r="P365" s="13"/>
       <c r="Q365" s="11"/>
       <c r="R365" s="11"/>
     </row>
@@ -9846,9 +7891,7 @@
       <c r="M366" s="11"/>
       <c r="N366" s="11"/>
       <c r="O366" s="11"/>
-      <c r="P366" s="13" t="s">
-        <v>359</v>
-      </c>
+      <c r="P366" s="13"/>
       <c r="Q366" s="11"/>
       <c r="R366" s="11"/>
     </row>
@@ -9868,9 +7911,7 @@
       <c r="M367" s="11"/>
       <c r="N367" s="11"/>
       <c r="O367" s="11"/>
-      <c r="P367" s="13" t="s">
-        <v>360</v>
-      </c>
+      <c r="P367" s="13"/>
       <c r="Q367" s="11"/>
       <c r="R367" s="11"/>
     </row>
@@ -9890,9 +7931,7 @@
       <c r="M368" s="11"/>
       <c r="N368" s="11"/>
       <c r="O368" s="11"/>
-      <c r="P368" s="13" t="s">
-        <v>361</v>
-      </c>
+      <c r="P368" s="13"/>
       <c r="Q368" s="11"/>
       <c r="R368" s="11"/>
     </row>
@@ -9912,9 +7951,7 @@
       <c r="M369" s="11"/>
       <c r="N369" s="11"/>
       <c r="O369" s="11"/>
-      <c r="P369" s="13" t="s">
-        <v>362</v>
-      </c>
+      <c r="P369" s="13"/>
       <c r="Q369" s="11"/>
       <c r="R369" s="11"/>
     </row>
@@ -9934,9 +7971,7 @@
       <c r="M370" s="11"/>
       <c r="N370" s="11"/>
       <c r="O370" s="11"/>
-      <c r="P370" s="13" t="s">
-        <v>363</v>
-      </c>
+      <c r="P370" s="13"/>
       <c r="Q370" s="11"/>
       <c r="R370" s="11"/>
     </row>
@@ -9956,9 +7991,7 @@
       <c r="M371" s="11"/>
       <c r="N371" s="11"/>
       <c r="O371" s="11"/>
-      <c r="P371" s="13" t="s">
-        <v>364</v>
-      </c>
+      <c r="P371" s="13"/>
       <c r="Q371" s="11"/>
       <c r="R371" s="11"/>
     </row>
@@ -9978,9 +8011,7 @@
       <c r="M372" s="11"/>
       <c r="N372" s="11"/>
       <c r="O372" s="11"/>
-      <c r="P372" s="13" t="s">
-        <v>365</v>
-      </c>
+      <c r="P372" s="13"/>
       <c r="Q372" s="11"/>
       <c r="R372" s="11"/>
     </row>
@@ -10000,9 +8031,7 @@
       <c r="M373" s="11"/>
       <c r="N373" s="11"/>
       <c r="O373" s="11"/>
-      <c r="P373" s="13" t="s">
-        <v>366</v>
-      </c>
+      <c r="P373" s="13"/>
       <c r="Q373" s="11"/>
       <c r="R373" s="11"/>
     </row>
@@ -10022,9 +8051,7 @@
       <c r="M374" s="11"/>
       <c r="N374" s="11"/>
       <c r="O374" s="11"/>
-      <c r="P374" s="13" t="s">
-        <v>367</v>
-      </c>
+      <c r="P374" s="13"/>
       <c r="Q374" s="11"/>
       <c r="R374" s="11"/>
     </row>
@@ -10044,9 +8071,7 @@
       <c r="M375" s="11"/>
       <c r="N375" s="11"/>
       <c r="O375" s="11"/>
-      <c r="P375" s="13" t="s">
-        <v>368</v>
-      </c>
+      <c r="P375" s="13"/>
       <c r="Q375" s="11"/>
       <c r="R375" s="11"/>
     </row>
@@ -10066,9 +8091,7 @@
       <c r="M376" s="11"/>
       <c r="N376" s="11"/>
       <c r="O376" s="11"/>
-      <c r="P376" s="13" t="s">
-        <v>369</v>
-      </c>
+      <c r="P376" s="13"/>
       <c r="Q376" s="11"/>
       <c r="R376" s="11"/>
     </row>
@@ -10088,9 +8111,7 @@
       <c r="M377" s="11"/>
       <c r="N377" s="11"/>
       <c r="O377" s="11"/>
-      <c r="P377" s="13" t="s">
-        <v>370</v>
-      </c>
+      <c r="P377" s="13"/>
       <c r="Q377" s="11"/>
       <c r="R377" s="11"/>
     </row>
@@ -10110,9 +8131,7 @@
       <c r="M378" s="11"/>
       <c r="N378" s="11"/>
       <c r="O378" s="11"/>
-      <c r="P378" s="13" t="s">
-        <v>371</v>
-      </c>
+      <c r="P378" s="13"/>
       <c r="Q378" s="11"/>
       <c r="R378" s="11"/>
     </row>
@@ -10132,9 +8151,7 @@
       <c r="M379" s="11"/>
       <c r="N379" s="11"/>
       <c r="O379" s="11"/>
-      <c r="P379" s="13" t="s">
-        <v>372</v>
-      </c>
+      <c r="P379" s="13"/>
       <c r="Q379" s="11"/>
       <c r="R379" s="11"/>
     </row>
@@ -10154,9 +8171,7 @@
       <c r="M380" s="11"/>
       <c r="N380" s="11"/>
       <c r="O380" s="11"/>
-      <c r="P380" s="13" t="s">
-        <v>373</v>
-      </c>
+      <c r="P380" s="13"/>
       <c r="Q380" s="11"/>
       <c r="R380" s="11"/>
     </row>
@@ -10176,9 +8191,7 @@
       <c r="M381" s="11"/>
       <c r="N381" s="11"/>
       <c r="O381" s="11"/>
-      <c r="P381" s="13" t="s">
-        <v>374</v>
-      </c>
+      <c r="P381" s="13"/>
       <c r="Q381" s="11"/>
       <c r="R381" s="11"/>
     </row>
@@ -10198,9 +8211,7 @@
       <c r="M382" s="11"/>
       <c r="N382" s="11"/>
       <c r="O382" s="11"/>
-      <c r="P382" s="13" t="s">
-        <v>375</v>
-      </c>
+      <c r="P382" s="13"/>
       <c r="Q382" s="11"/>
       <c r="R382" s="11"/>
     </row>
@@ -10220,9 +8231,7 @@
       <c r="M383" s="11"/>
       <c r="N383" s="11"/>
       <c r="O383" s="11"/>
-      <c r="P383" s="13" t="s">
-        <v>376</v>
-      </c>
+      <c r="P383" s="13"/>
       <c r="Q383" s="11"/>
       <c r="R383" s="11"/>
     </row>
@@ -10242,9 +8251,7 @@
       <c r="M384" s="11"/>
       <c r="N384" s="11"/>
       <c r="O384" s="11"/>
-      <c r="P384" s="13" t="s">
-        <v>377</v>
-      </c>
+      <c r="P384" s="13"/>
       <c r="Q384" s="11"/>
       <c r="R384" s="11"/>
     </row>
@@ -10264,9 +8271,7 @@
       <c r="M385" s="11"/>
       <c r="N385" s="11"/>
       <c r="O385" s="11"/>
-      <c r="P385" s="13" t="s">
-        <v>378</v>
-      </c>
+      <c r="P385" s="13"/>
       <c r="Q385" s="11"/>
       <c r="R385" s="11"/>
     </row>
@@ -10286,9 +8291,7 @@
       <c r="M386" s="11"/>
       <c r="N386" s="11"/>
       <c r="O386" s="11"/>
-      <c r="P386" s="13" t="s">
-        <v>379</v>
-      </c>
+      <c r="P386" s="13"/>
       <c r="Q386" s="11"/>
       <c r="R386" s="11"/>
     </row>
@@ -10308,9 +8311,7 @@
       <c r="M387" s="11"/>
       <c r="N387" s="11"/>
       <c r="O387" s="11"/>
-      <c r="P387" s="13" t="s">
-        <v>380</v>
-      </c>
+      <c r="P387" s="13"/>
       <c r="Q387" s="11"/>
       <c r="R387" s="11"/>
     </row>
@@ -10330,9 +8331,7 @@
       <c r="M388" s="11"/>
       <c r="N388" s="11"/>
       <c r="O388" s="11"/>
-      <c r="P388" s="13" t="s">
-        <v>381</v>
-      </c>
+      <c r="P388" s="13"/>
       <c r="Q388" s="11"/>
       <c r="R388" s="11"/>
     </row>
@@ -10352,9 +8351,7 @@
       <c r="M389" s="11"/>
       <c r="N389" s="11"/>
       <c r="O389" s="11"/>
-      <c r="P389" s="13" t="s">
-        <v>382</v>
-      </c>
+      <c r="P389" s="13"/>
       <c r="Q389" s="11"/>
       <c r="R389" s="11"/>
     </row>
@@ -10374,9 +8371,7 @@
       <c r="M390" s="11"/>
       <c r="N390" s="11"/>
       <c r="O390" s="11"/>
-      <c r="P390" s="13" t="s">
-        <v>383</v>
-      </c>
+      <c r="P390" s="13"/>
       <c r="Q390" s="11"/>
       <c r="R390" s="11"/>
     </row>
@@ -10396,9 +8391,7 @@
       <c r="M391" s="11"/>
       <c r="N391" s="11"/>
       <c r="O391" s="11"/>
-      <c r="P391" s="13" t="s">
-        <v>384</v>
-      </c>
+      <c r="P391" s="13"/>
       <c r="Q391" s="11"/>
       <c r="R391" s="11"/>
     </row>
@@ -10418,9 +8411,7 @@
       <c r="M392" s="11"/>
       <c r="N392" s="11"/>
       <c r="O392" s="11"/>
-      <c r="P392" s="13" t="s">
-        <v>385</v>
-      </c>
+      <c r="P392" s="13"/>
       <c r="Q392" s="11"/>
       <c r="R392" s="11"/>
     </row>
@@ -10440,9 +8431,7 @@
       <c r="M393" s="11"/>
       <c r="N393" s="11"/>
       <c r="O393" s="11"/>
-      <c r="P393" s="13" t="s">
-        <v>386</v>
-      </c>
+      <c r="P393" s="13"/>
       <c r="Q393" s="11"/>
       <c r="R393" s="11"/>
     </row>
@@ -10462,9 +8451,7 @@
       <c r="M394" s="11"/>
       <c r="N394" s="11"/>
       <c r="O394" s="11"/>
-      <c r="P394" s="13" t="s">
-        <v>387</v>
-      </c>
+      <c r="P394" s="13"/>
       <c r="Q394" s="11"/>
       <c r="R394" s="11"/>
     </row>
@@ -10484,9 +8471,7 @@
       <c r="M395" s="11"/>
       <c r="N395" s="11"/>
       <c r="O395" s="11"/>
-      <c r="P395" s="13" t="s">
-        <v>388</v>
-      </c>
+      <c r="P395" s="13"/>
       <c r="Q395" s="11"/>
       <c r="R395" s="11"/>
     </row>
@@ -10506,9 +8491,7 @@
       <c r="M396" s="11"/>
       <c r="N396" s="11"/>
       <c r="O396" s="11"/>
-      <c r="P396" s="13" t="s">
-        <v>389</v>
-      </c>
+      <c r="P396" s="13"/>
       <c r="Q396" s="11"/>
       <c r="R396" s="11"/>
     </row>
@@ -10528,9 +8511,7 @@
       <c r="M397" s="11"/>
       <c r="N397" s="11"/>
       <c r="O397" s="11"/>
-      <c r="P397" s="13" t="s">
-        <v>390</v>
-      </c>
+      <c r="P397" s="13"/>
       <c r="Q397" s="11"/>
       <c r="R397" s="11"/>
     </row>
@@ -10550,9 +8531,7 @@
       <c r="M398" s="11"/>
       <c r="N398" s="11"/>
       <c r="O398" s="11"/>
-      <c r="P398" s="13" t="s">
-        <v>391</v>
-      </c>
+      <c r="P398" s="13"/>
       <c r="Q398" s="11"/>
       <c r="R398" s="11"/>
     </row>
@@ -10572,9 +8551,7 @@
       <c r="M399" s="11"/>
       <c r="N399" s="11"/>
       <c r="O399" s="11"/>
-      <c r="P399" s="13" t="s">
-        <v>392</v>
-      </c>
+      <c r="P399" s="13"/>
       <c r="Q399" s="11"/>
       <c r="R399" s="11"/>
     </row>
@@ -10594,9 +8571,7 @@
       <c r="M400" s="11"/>
       <c r="N400" s="11"/>
       <c r="O400" s="11"/>
-      <c r="P400" s="13" t="s">
-        <v>393</v>
-      </c>
+      <c r="P400" s="13"/>
       <c r="Q400" s="11"/>
       <c r="R400" s="11"/>
     </row>
@@ -10616,9 +8591,7 @@
       <c r="M401" s="11"/>
       <c r="N401" s="11"/>
       <c r="O401" s="11"/>
-      <c r="P401" s="13" t="s">
-        <v>394</v>
-      </c>
+      <c r="P401" s="13"/>
       <c r="Q401" s="11"/>
       <c r="R401" s="11"/>
     </row>
@@ -10638,9 +8611,7 @@
       <c r="M402" s="11"/>
       <c r="N402" s="11"/>
       <c r="O402" s="11"/>
-      <c r="P402" s="13" t="s">
-        <v>395</v>
-      </c>
+      <c r="P402" s="13"/>
       <c r="Q402" s="11"/>
       <c r="R402" s="11"/>
     </row>
@@ -10660,9 +8631,7 @@
       <c r="M403" s="11"/>
       <c r="N403" s="11"/>
       <c r="O403" s="11"/>
-      <c r="P403" s="13" t="s">
-        <v>396</v>
-      </c>
+      <c r="P403" s="13"/>
       <c r="Q403" s="11"/>
       <c r="R403" s="11"/>
     </row>
@@ -10682,9 +8651,7 @@
       <c r="M404" s="11"/>
       <c r="N404" s="11"/>
       <c r="O404" s="11"/>
-      <c r="P404" s="13" t="s">
-        <v>397</v>
-      </c>
+      <c r="P404" s="13"/>
       <c r="Q404" s="11"/>
       <c r="R404" s="11"/>
     </row>
@@ -10704,9 +8671,7 @@
       <c r="M405" s="11"/>
       <c r="N405" s="11"/>
       <c r="O405" s="11"/>
-      <c r="P405" s="13" t="s">
-        <v>398</v>
-      </c>
+      <c r="P405" s="13"/>
       <c r="Q405" s="11"/>
       <c r="R405" s="11"/>
     </row>
@@ -10726,9 +8691,7 @@
       <c r="M406" s="11"/>
       <c r="N406" s="11"/>
       <c r="O406" s="11"/>
-      <c r="P406" s="13" t="s">
-        <v>399</v>
-      </c>
+      <c r="P406" s="13"/>
       <c r="Q406" s="11"/>
       <c r="R406" s="11"/>
     </row>
@@ -10748,9 +8711,7 @@
       <c r="M407" s="11"/>
       <c r="N407" s="11"/>
       <c r="O407" s="11"/>
-      <c r="P407" s="13" t="s">
-        <v>400</v>
-      </c>
+      <c r="P407" s="13"/>
       <c r="Q407" s="11"/>
       <c r="R407" s="11"/>
     </row>
@@ -10770,9 +8731,7 @@
       <c r="M408" s="11"/>
       <c r="N408" s="11"/>
       <c r="O408" s="11"/>
-      <c r="P408" s="13" t="s">
-        <v>401</v>
-      </c>
+      <c r="P408" s="13"/>
       <c r="Q408" s="11"/>
       <c r="R408" s="11"/>
     </row>
@@ -10792,9 +8751,7 @@
       <c r="M409" s="11"/>
       <c r="N409" s="11"/>
       <c r="O409" s="11"/>
-      <c r="P409" s="13" t="s">
-        <v>402</v>
-      </c>
+      <c r="P409" s="13"/>
       <c r="Q409" s="11"/>
       <c r="R409" s="11"/>
     </row>
@@ -10814,9 +8771,7 @@
       <c r="M410" s="11"/>
       <c r="N410" s="11"/>
       <c r="O410" s="11"/>
-      <c r="P410" s="13" t="s">
-        <v>403</v>
-      </c>
+      <c r="P410" s="13"/>
       <c r="Q410" s="11"/>
       <c r="R410" s="11"/>
     </row>
@@ -10836,9 +8791,7 @@
       <c r="M411" s="11"/>
       <c r="N411" s="11"/>
       <c r="O411" s="11"/>
-      <c r="P411" s="13" t="s">
-        <v>404</v>
-      </c>
+      <c r="P411" s="13"/>
       <c r="Q411" s="11"/>
       <c r="R411" s="11"/>
     </row>
@@ -10858,9 +8811,7 @@
       <c r="M412" s="11"/>
       <c r="N412" s="11"/>
       <c r="O412" s="11"/>
-      <c r="P412" s="13" t="s">
-        <v>405</v>
-      </c>
+      <c r="P412" s="13"/>
       <c r="Q412" s="11"/>
       <c r="R412" s="11"/>
     </row>
@@ -10880,9 +8831,7 @@
       <c r="M413" s="11"/>
       <c r="N413" s="11"/>
       <c r="O413" s="11"/>
-      <c r="P413" s="13" t="s">
-        <v>406</v>
-      </c>
+      <c r="P413" s="13"/>
       <c r="Q413" s="11"/>
       <c r="R413" s="11"/>
     </row>
@@ -10902,9 +8851,7 @@
       <c r="M414" s="11"/>
       <c r="N414" s="11"/>
       <c r="O414" s="11"/>
-      <c r="P414" s="13" t="s">
-        <v>407</v>
-      </c>
+      <c r="P414" s="13"/>
       <c r="Q414" s="11"/>
       <c r="R414" s="11"/>
     </row>
@@ -10924,9 +8871,7 @@
       <c r="M415" s="11"/>
       <c r="N415" s="11"/>
       <c r="O415" s="11"/>
-      <c r="P415" s="13" t="s">
-        <v>408</v>
-      </c>
+      <c r="P415" s="13"/>
       <c r="Q415" s="11"/>
       <c r="R415" s="11"/>
     </row>
@@ -10946,9 +8891,7 @@
       <c r="M416" s="11"/>
       <c r="N416" s="11"/>
       <c r="O416" s="11"/>
-      <c r="P416" s="13" t="s">
-        <v>409</v>
-      </c>
+      <c r="P416" s="13"/>
       <c r="Q416" s="11"/>
       <c r="R416" s="11"/>
     </row>
@@ -10968,9 +8911,7 @@
       <c r="M417" s="11"/>
       <c r="N417" s="11"/>
       <c r="O417" s="11"/>
-      <c r="P417" s="13" t="s">
-        <v>410</v>
-      </c>
+      <c r="P417" s="13"/>
       <c r="Q417" s="11"/>
       <c r="R417" s="11"/>
     </row>
@@ -10990,9 +8931,7 @@
       <c r="M418" s="11"/>
       <c r="N418" s="11"/>
       <c r="O418" s="11"/>
-      <c r="P418" s="13" t="s">
-        <v>411</v>
-      </c>
+      <c r="P418" s="13"/>
       <c r="Q418" s="11"/>
       <c r="R418" s="11"/>
     </row>
@@ -11012,9 +8951,7 @@
       <c r="M419" s="11"/>
       <c r="N419" s="11"/>
       <c r="O419" s="11"/>
-      <c r="P419" s="13" t="s">
-        <v>412</v>
-      </c>
+      <c r="P419" s="13"/>
       <c r="Q419" s="11"/>
       <c r="R419" s="11"/>
     </row>
@@ -11034,9 +8971,7 @@
       <c r="M420" s="11"/>
       <c r="N420" s="11"/>
       <c r="O420" s="11"/>
-      <c r="P420" s="13" t="s">
-        <v>413</v>
-      </c>
+      <c r="P420" s="13"/>
       <c r="Q420" s="11"/>
       <c r="R420" s="11"/>
     </row>
@@ -11056,9 +8991,7 @@
       <c r="M421" s="11"/>
       <c r="N421" s="11"/>
       <c r="O421" s="11"/>
-      <c r="P421" s="13" t="s">
-        <v>414</v>
-      </c>
+      <c r="P421" s="13"/>
       <c r="Q421" s="11"/>
       <c r="R421" s="11"/>
     </row>
@@ -11078,9 +9011,7 @@
       <c r="M422" s="11"/>
       <c r="N422" s="11"/>
       <c r="O422" s="11"/>
-      <c r="P422" s="13" t="s">
-        <v>415</v>
-      </c>
+      <c r="P422" s="13"/>
       <c r="Q422" s="11"/>
       <c r="R422" s="11"/>
     </row>
@@ -11100,9 +9031,7 @@
       <c r="M423" s="11"/>
       <c r="N423" s="11"/>
       <c r="O423" s="11"/>
-      <c r="P423" s="13" t="s">
-        <v>416</v>
-      </c>
+      <c r="P423" s="13"/>
       <c r="Q423" s="11"/>
       <c r="R423" s="11"/>
     </row>
@@ -11122,9 +9051,7 @@
       <c r="M424" s="11"/>
       <c r="N424" s="11"/>
       <c r="O424" s="11"/>
-      <c r="P424" s="13" t="s">
-        <v>417</v>
-      </c>
+      <c r="P424" s="13"/>
       <c r="Q424" s="11"/>
       <c r="R424" s="11"/>
     </row>
@@ -11144,9 +9071,7 @@
       <c r="M425" s="11"/>
       <c r="N425" s="11"/>
       <c r="O425" s="11"/>
-      <c r="P425" s="13" t="s">
-        <v>418</v>
-      </c>
+      <c r="P425" s="13"/>
       <c r="Q425" s="11"/>
       <c r="R425" s="11"/>
     </row>
@@ -11166,9 +9091,7 @@
       <c r="M426" s="11"/>
       <c r="N426" s="11"/>
       <c r="O426" s="11"/>
-      <c r="P426" s="13" t="s">
-        <v>419</v>
-      </c>
+      <c r="P426" s="13"/>
       <c r="Q426" s="11"/>
       <c r="R426" s="11"/>
     </row>
@@ -11188,9 +9111,7 @@
       <c r="M427" s="11"/>
       <c r="N427" s="11"/>
       <c r="O427" s="11"/>
-      <c r="P427" s="13" t="s">
-        <v>420</v>
-      </c>
+      <c r="P427" s="13"/>
       <c r="Q427" s="11"/>
       <c r="R427" s="11"/>
     </row>
@@ -11210,9 +9131,7 @@
       <c r="M428" s="11"/>
       <c r="N428" s="11"/>
       <c r="O428" s="11"/>
-      <c r="P428" s="13" t="s">
-        <v>421</v>
-      </c>
+      <c r="P428" s="13"/>
       <c r="Q428" s="11"/>
       <c r="R428" s="11"/>
     </row>
@@ -11232,9 +9151,7 @@
       <c r="M429" s="11"/>
       <c r="N429" s="11"/>
       <c r="O429" s="11"/>
-      <c r="P429" s="13" t="s">
-        <v>422</v>
-      </c>
+      <c r="P429" s="13"/>
       <c r="Q429" s="11"/>
       <c r="R429" s="11"/>
     </row>
@@ -11254,9 +9171,7 @@
       <c r="M430" s="11"/>
       <c r="N430" s="11"/>
       <c r="O430" s="11"/>
-      <c r="P430" s="13" t="s">
-        <v>423</v>
-      </c>
+      <c r="P430" s="13"/>
       <c r="Q430" s="11"/>
       <c r="R430" s="11"/>
     </row>
@@ -11276,9 +9191,7 @@
       <c r="M431" s="11"/>
       <c r="N431" s="11"/>
       <c r="O431" s="11"/>
-      <c r="P431" s="13" t="s">
-        <v>424</v>
-      </c>
+      <c r="P431" s="13"/>
       <c r="Q431" s="11"/>
       <c r="R431" s="11"/>
     </row>
@@ -11298,9 +9211,7 @@
       <c r="M432" s="11"/>
       <c r="N432" s="11"/>
       <c r="O432" s="11"/>
-      <c r="P432" s="13" t="s">
-        <v>425</v>
-      </c>
+      <c r="P432" s="13"/>
       <c r="Q432" s="11"/>
       <c r="R432" s="11"/>
     </row>
@@ -11320,9 +9231,7 @@
       <c r="M433" s="11"/>
       <c r="N433" s="11"/>
       <c r="O433" s="11"/>
-      <c r="P433" s="13" t="s">
-        <v>426</v>
-      </c>
+      <c r="P433" s="13"/>
       <c r="Q433" s="11"/>
       <c r="R433" s="11"/>
     </row>
@@ -11342,9 +9251,7 @@
       <c r="M434" s="11"/>
       <c r="N434" s="11"/>
       <c r="O434" s="11"/>
-      <c r="P434" s="13" t="s">
-        <v>427</v>
-      </c>
+      <c r="P434" s="13"/>
       <c r="Q434" s="11"/>
       <c r="R434" s="11"/>
     </row>
@@ -11364,9 +9271,7 @@
       <c r="M435" s="11"/>
       <c r="N435" s="11"/>
       <c r="O435" s="11"/>
-      <c r="P435" s="13" t="s">
-        <v>428</v>
-      </c>
+      <c r="P435" s="13"/>
       <c r="Q435" s="11"/>
       <c r="R435" s="11"/>
     </row>
@@ -11386,9 +9291,7 @@
       <c r="M436" s="11"/>
       <c r="N436" s="11"/>
       <c r="O436" s="11"/>
-      <c r="P436" s="13" t="s">
-        <v>429</v>
-      </c>
+      <c r="P436" s="13"/>
       <c r="Q436" s="11"/>
       <c r="R436" s="11"/>
     </row>
@@ -11408,9 +9311,7 @@
       <c r="M437" s="11"/>
       <c r="N437" s="11"/>
       <c r="O437" s="11"/>
-      <c r="P437" s="13" t="s">
-        <v>430</v>
-      </c>
+      <c r="P437" s="13"/>
       <c r="Q437" s="11"/>
       <c r="R437" s="11"/>
     </row>
@@ -11430,9 +9331,7 @@
       <c r="M438" s="11"/>
       <c r="N438" s="11"/>
       <c r="O438" s="11"/>
-      <c r="P438" s="13" t="s">
-        <v>431</v>
-      </c>
+      <c r="P438" s="13"/>
       <c r="Q438" s="11"/>
       <c r="R438" s="11"/>
     </row>
@@ -11452,9 +9351,7 @@
       <c r="M439" s="11"/>
       <c r="N439" s="11"/>
       <c r="O439" s="11"/>
-      <c r="P439" s="13" t="s">
-        <v>432</v>
-      </c>
+      <c r="P439" s="13"/>
       <c r="Q439" s="11"/>
       <c r="R439" s="11"/>
     </row>
@@ -11474,9 +9371,7 @@
       <c r="M440" s="11"/>
       <c r="N440" s="11"/>
       <c r="O440" s="11"/>
-      <c r="P440" s="13" t="s">
-        <v>433</v>
-      </c>
+      <c r="P440" s="13"/>
       <c r="Q440" s="11"/>
       <c r="R440" s="11"/>
     </row>
@@ -11496,9 +9391,7 @@
       <c r="M441" s="11"/>
       <c r="N441" s="11"/>
       <c r="O441" s="11"/>
-      <c r="P441" s="13" t="s">
-        <v>434</v>
-      </c>
+      <c r="P441" s="13"/>
       <c r="Q441" s="11"/>
       <c r="R441" s="11"/>
     </row>
@@ -11518,9 +9411,7 @@
       <c r="M442" s="11"/>
       <c r="N442" s="11"/>
       <c r="O442" s="11"/>
-      <c r="P442" s="13" t="s">
-        <v>435</v>
-      </c>
+      <c r="P442" s="13"/>
       <c r="Q442" s="11"/>
       <c r="R442" s="11"/>
     </row>
@@ -11540,9 +9431,7 @@
       <c r="M443" s="11"/>
       <c r="N443" s="11"/>
       <c r="O443" s="11"/>
-      <c r="P443" s="13" t="s">
-        <v>436</v>
-      </c>
+      <c r="P443" s="13"/>
       <c r="Q443" s="11"/>
       <c r="R443" s="11"/>
     </row>
@@ -11562,9 +9451,7 @@
       <c r="M444" s="11"/>
       <c r="N444" s="11"/>
       <c r="O444" s="11"/>
-      <c r="P444" s="13" t="s">
-        <v>437</v>
-      </c>
+      <c r="P444" s="13"/>
       <c r="Q444" s="11"/>
       <c r="R444" s="11"/>
     </row>
@@ -11584,9 +9471,7 @@
       <c r="M445" s="11"/>
       <c r="N445" s="11"/>
       <c r="O445" s="11"/>
-      <c r="P445" s="13" t="s">
-        <v>438</v>
-      </c>
+      <c r="P445" s="13"/>
       <c r="Q445" s="11"/>
       <c r="R445" s="11"/>
     </row>
@@ -11606,9 +9491,7 @@
       <c r="M446" s="11"/>
       <c r="N446" s="11"/>
       <c r="O446" s="11"/>
-      <c r="P446" s="13" t="s">
-        <v>439</v>
-      </c>
+      <c r="P446" s="13"/>
       <c r="Q446" s="11"/>
       <c r="R446" s="11"/>
     </row>
@@ -11628,9 +9511,7 @@
       <c r="M447" s="11"/>
       <c r="N447" s="11"/>
       <c r="O447" s="11"/>
-      <c r="P447" s="13" t="s">
-        <v>440</v>
-      </c>
+      <c r="P447" s="13"/>
       <c r="Q447" s="11"/>
       <c r="R447" s="11"/>
     </row>
@@ -11650,9 +9531,7 @@
       <c r="M448" s="11"/>
       <c r="N448" s="11"/>
       <c r="O448" s="11"/>
-      <c r="P448" s="13" t="s">
-        <v>441</v>
-      </c>
+      <c r="P448" s="13"/>
       <c r="Q448" s="11"/>
       <c r="R448" s="11"/>
     </row>
@@ -11672,9 +9551,7 @@
       <c r="M449" s="11"/>
       <c r="N449" s="11"/>
       <c r="O449" s="11"/>
-      <c r="P449" s="13" t="s">
-        <v>442</v>
-      </c>
+      <c r="P449" s="13"/>
       <c r="Q449" s="11"/>
       <c r="R449" s="11"/>
     </row>
@@ -11694,9 +9571,7 @@
       <c r="M450" s="11"/>
       <c r="N450" s="11"/>
       <c r="O450" s="11"/>
-      <c r="P450" s="13" t="s">
-        <v>443</v>
-      </c>
+      <c r="P450" s="13"/>
       <c r="Q450" s="11"/>
       <c r="R450" s="11"/>
     </row>
@@ -11716,9 +9591,7 @@
       <c r="M451" s="11"/>
       <c r="N451" s="11"/>
       <c r="O451" s="11"/>
-      <c r="P451" s="13" t="s">
-        <v>444</v>
-      </c>
+      <c r="P451" s="13"/>
       <c r="Q451" s="11"/>
       <c r="R451" s="11"/>
     </row>
@@ -11738,9 +9611,7 @@
       <c r="M452" s="11"/>
       <c r="N452" s="11"/>
       <c r="O452" s="11"/>
-      <c r="P452" s="13" t="s">
-        <v>445</v>
-      </c>
+      <c r="P452" s="13"/>
       <c r="Q452" s="11"/>
       <c r="R452" s="11"/>
     </row>
@@ -11760,9 +9631,7 @@
       <c r="M453" s="11"/>
       <c r="N453" s="11"/>
       <c r="O453" s="11"/>
-      <c r="P453" s="13" t="s">
-        <v>446</v>
-      </c>
+      <c r="P453" s="13"/>
       <c r="Q453" s="11"/>
       <c r="R453" s="11"/>
     </row>
@@ -11782,9 +9651,7 @@
       <c r="M454" s="11"/>
       <c r="N454" s="11"/>
       <c r="O454" s="11"/>
-      <c r="P454" s="13" t="s">
-        <v>447</v>
-      </c>
+      <c r="P454" s="13"/>
       <c r="Q454" s="11"/>
       <c r="R454" s="11"/>
     </row>
@@ -11804,9 +9671,7 @@
       <c r="M455" s="11"/>
       <c r="N455" s="11"/>
       <c r="O455" s="11"/>
-      <c r="P455" s="13" t="s">
-        <v>448</v>
-      </c>
+      <c r="P455" s="13"/>
       <c r="Q455" s="11"/>
       <c r="R455" s="11"/>
     </row>
@@ -11826,9 +9691,7 @@
       <c r="M456" s="11"/>
       <c r="N456" s="11"/>
       <c r="O456" s="11"/>
-      <c r="P456" s="13" t="s">
-        <v>449</v>
-      </c>
+      <c r="P456" s="13"/>
       <c r="Q456" s="11"/>
       <c r="R456" s="11"/>
     </row>
@@ -11848,9 +9711,7 @@
       <c r="M457" s="11"/>
       <c r="N457" s="11"/>
       <c r="O457" s="11"/>
-      <c r="P457" s="13" t="s">
-        <v>450</v>
-      </c>
+      <c r="P457" s="13"/>
       <c r="Q457" s="11"/>
       <c r="R457" s="11"/>
     </row>
@@ -11870,9 +9731,7 @@
       <c r="M458" s="11"/>
       <c r="N458" s="11"/>
       <c r="O458" s="11"/>
-      <c r="P458" s="13" t="s">
-        <v>451</v>
-      </c>
+      <c r="P458" s="13"/>
       <c r="Q458" s="11"/>
       <c r="R458" s="11"/>
     </row>
@@ -11892,9 +9751,7 @@
       <c r="M459" s="11"/>
       <c r="N459" s="11"/>
       <c r="O459" s="11"/>
-      <c r="P459" s="13" t="s">
-        <v>452</v>
-      </c>
+      <c r="P459" s="13"/>
       <c r="Q459" s="11"/>
       <c r="R459" s="11"/>
     </row>
@@ -11914,9 +9771,7 @@
       <c r="M460" s="11"/>
       <c r="N460" s="11"/>
       <c r="O460" s="11"/>
-      <c r="P460" s="13" t="s">
-        <v>453</v>
-      </c>
+      <c r="P460" s="13"/>
       <c r="Q460" s="11"/>
       <c r="R460" s="11"/>
     </row>
@@ -11936,9 +9791,7 @@
       <c r="M461" s="11"/>
       <c r="N461" s="11"/>
       <c r="O461" s="11"/>
-      <c r="P461" s="13" t="s">
-        <v>454</v>
-      </c>
+      <c r="P461" s="13"/>
       <c r="Q461" s="11"/>
       <c r="R461" s="11"/>
     </row>
@@ -11958,9 +9811,7 @@
       <c r="M462" s="11"/>
       <c r="N462" s="11"/>
       <c r="O462" s="11"/>
-      <c r="P462" s="13" t="s">
-        <v>455</v>
-      </c>
+      <c r="P462" s="13"/>
       <c r="Q462" s="11"/>
       <c r="R462" s="11"/>
     </row>
@@ -11980,9 +9831,7 @@
       <c r="M463" s="11"/>
       <c r="N463" s="11"/>
       <c r="O463" s="11"/>
-      <c r="P463" s="13" t="s">
-        <v>456</v>
-      </c>
+      <c r="P463" s="13"/>
       <c r="Q463" s="11"/>
       <c r="R463" s="11"/>
     </row>
@@ -12002,9 +9851,7 @@
       <c r="M464" s="11"/>
       <c r="N464" s="11"/>
       <c r="O464" s="11"/>
-      <c r="P464" s="13" t="s">
-        <v>456</v>
-      </c>
+      <c r="P464" s="13"/>
       <c r="Q464" s="11"/>
       <c r="R464" s="11"/>
     </row>
@@ -12024,9 +9871,7 @@
       <c r="M465" s="11"/>
       <c r="N465" s="11"/>
       <c r="O465" s="11"/>
-      <c r="P465" s="13" t="s">
-        <v>457</v>
-      </c>
+      <c r="P465" s="13"/>
       <c r="Q465" s="11"/>
       <c r="R465" s="11"/>
     </row>
@@ -12046,9 +9891,7 @@
       <c r="M466" s="11"/>
       <c r="N466" s="11"/>
       <c r="O466" s="11"/>
-      <c r="P466" s="13" t="s">
-        <v>458</v>
-      </c>
+      <c r="P466" s="13"/>
       <c r="Q466" s="11"/>
       <c r="R466" s="11"/>
     </row>
@@ -12068,9 +9911,7 @@
       <c r="M467" s="11"/>
       <c r="N467" s="11"/>
       <c r="O467" s="11"/>
-      <c r="P467" s="13" t="s">
-        <v>459</v>
-      </c>
+      <c r="P467" s="13"/>
       <c r="Q467" s="11"/>
       <c r="R467" s="11"/>
     </row>
@@ -12090,9 +9931,7 @@
       <c r="M468" s="11"/>
       <c r="N468" s="11"/>
       <c r="O468" s="11"/>
-      <c r="P468" s="13" t="s">
-        <v>460</v>
-      </c>
+      <c r="P468" s="13"/>
       <c r="Q468" s="11"/>
       <c r="R468" s="11"/>
     </row>
@@ -12112,9 +9951,7 @@
       <c r="M469" s="11"/>
       <c r="N469" s="11"/>
       <c r="O469" s="11"/>
-      <c r="P469" s="13" t="s">
-        <v>461</v>
-      </c>
+      <c r="P469" s="13"/>
       <c r="Q469" s="11"/>
       <c r="R469" s="11"/>
     </row>
@@ -12134,9 +9971,7 @@
       <c r="M470" s="11"/>
       <c r="N470" s="11"/>
       <c r="O470" s="11"/>
-      <c r="P470" s="13" t="s">
-        <v>462</v>
-      </c>
+      <c r="P470" s="13"/>
       <c r="Q470" s="11"/>
       <c r="R470" s="11"/>
     </row>
@@ -12156,9 +9991,7 @@
       <c r="M471" s="11"/>
       <c r="N471" s="11"/>
       <c r="O471" s="11"/>
-      <c r="P471" s="13" t="s">
-        <v>463</v>
-      </c>
+      <c r="P471" s="13"/>
       <c r="Q471" s="11"/>
       <c r="R471" s="11"/>
     </row>
@@ -12178,9 +10011,7 @@
       <c r="M472" s="11"/>
       <c r="N472" s="11"/>
       <c r="O472" s="11"/>
-      <c r="P472" s="13" t="s">
-        <v>464</v>
-      </c>
+      <c r="P472" s="13"/>
       <c r="Q472" s="11"/>
       <c r="R472" s="11"/>
     </row>
@@ -12200,9 +10031,7 @@
       <c r="M473" s="11"/>
       <c r="N473" s="11"/>
       <c r="O473" s="11"/>
-      <c r="P473" s="13" t="s">
-        <v>465</v>
-      </c>
+      <c r="P473" s="13"/>
       <c r="Q473" s="11"/>
       <c r="R473" s="11"/>
     </row>
@@ -12222,9 +10051,7 @@
       <c r="M474" s="11"/>
       <c r="N474" s="11"/>
       <c r="O474" s="11"/>
-      <c r="P474" s="13" t="s">
-        <v>466</v>
-      </c>
+      <c r="P474" s="13"/>
       <c r="Q474" s="11"/>
       <c r="R474" s="11"/>
     </row>
@@ -12244,9 +10071,7 @@
       <c r="M475" s="11"/>
       <c r="N475" s="11"/>
       <c r="O475" s="11"/>
-      <c r="P475" s="13" t="s">
-        <v>467</v>
-      </c>
+      <c r="P475" s="13"/>
       <c r="Q475" s="11"/>
       <c r="R475" s="11"/>
     </row>
@@ -12266,9 +10091,7 @@
       <c r="M476" s="11"/>
       <c r="N476" s="11"/>
       <c r="O476" s="11"/>
-      <c r="P476" s="13" t="s">
-        <v>468</v>
-      </c>
+      <c r="P476" s="13"/>
       <c r="Q476" s="11"/>
       <c r="R476" s="11"/>
     </row>
@@ -12288,9 +10111,7 @@
       <c r="M477" s="11"/>
       <c r="N477" s="11"/>
       <c r="O477" s="11"/>
-      <c r="P477" s="13" t="s">
-        <v>469</v>
-      </c>
+      <c r="P477" s="13"/>
       <c r="Q477" s="11"/>
       <c r="R477" s="11"/>
     </row>
@@ -12310,9 +10131,7 @@
       <c r="M478" s="11"/>
       <c r="N478" s="11"/>
       <c r="O478" s="11"/>
-      <c r="P478" s="13" t="s">
-        <v>470</v>
-      </c>
+      <c r="P478" s="13"/>
       <c r="Q478" s="11"/>
       <c r="R478" s="11"/>
     </row>
